--- a/Planning Report/application sprint planner sprint1 18.11.19.xlsx
+++ b/Planning Report/application sprint planner sprint1 18.11.19.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7172FE-0A02-4DF8-8929-6B2D60AEC2D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C4064F-354B-453F-81D5-C8A83554ECC7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="98">
   <si>
     <t>Create a Gantt Chart in this worksheet.
 Enter title of this project in cell B1. 
@@ -326,13 +326,7 @@
     <t>Task - wireframes</t>
   </si>
   <si>
-    <t>Supervisor Meeting x2</t>
-  </si>
-  <si>
     <t>sprint planning</t>
-  </si>
-  <si>
-    <t>Card Render Update</t>
   </si>
   <si>
     <t>Supervisor Meeting x4</t>
@@ -351,6 +345,9 @@
   </si>
   <si>
     <t>Affordance UX based css</t>
+  </si>
+  <si>
+    <t>Task Creation</t>
   </si>
 </sst>
 </file>
@@ -3207,8 +3204,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones" displayName="Milestones" ref="B7:H95" totalsRowShown="0">
-  <autoFilter ref="B7:H95" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones" displayName="Milestones" ref="B7:H96" totalsRowShown="0">
+  <autoFilter ref="B7:H96" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3499,10 +3496,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BM98"/>
+  <dimension ref="A1:BM99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8220,7 +8217,7 @@
     <row r="26" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>67</v>
@@ -8231,7 +8228,9 @@
       <c r="E26" s="34">
         <v>1</v>
       </c>
-      <c r="F26" s="31"/>
+      <c r="F26" s="31">
+        <v>1</v>
+      </c>
       <c r="G26" s="32">
         <v>43787</v>
       </c>
@@ -8478,7 +8477,9 @@
       <c r="E27" s="34">
         <v>4</v>
       </c>
-      <c r="F27" s="31"/>
+      <c r="F27" s="31">
+        <v>1</v>
+      </c>
       <c r="G27" s="32">
         <v>43787</v>
       </c>
@@ -8732,7 +8733,7 @@
       </c>
       <c r="I28" s="26"/>
       <c r="J28" s="38" t="str">
-        <f t="shared" ref="J28:Y41" ca="1" si="18">IF(AND($D28="Goal",J$5&gt;=$G28,J$5&lt;=$G28+$H28-1),2,IF(AND($D28="Milestone",J$5&gt;=$G28,J$5&lt;=$G28+$H28-1),1,""))</f>
+        <f t="shared" ref="J28:Y42" ca="1" si="18">IF(AND($D28="Goal",J$5&gt;=$G28,J$5&lt;=$G28+$H28-1),2,IF(AND($D28="Milestone",J$5&gt;=$G28,J$5&lt;=$G28+$H28-1),1,""))</f>
         <v/>
       </c>
       <c r="K28" s="38" t="str">
@@ -8796,7 +8797,7 @@
         <v/>
       </c>
       <c r="Z28" s="38" t="str">
-        <f t="shared" ref="Z28:AO41" ca="1" si="19">IF(AND($D28="Goal",Z$5&gt;=$G28,Z$5&lt;=$G28+$H28-1),2,IF(AND($D28="Milestone",Z$5&gt;=$G28,Z$5&lt;=$G28+$H28-1),1,""))</f>
+        <f t="shared" ref="Z28:AO42" ca="1" si="19">IF(AND($D28="Goal",Z$5&gt;=$G28,Z$5&lt;=$G28+$H28-1),2,IF(AND($D28="Milestone",Z$5&gt;=$G28,Z$5&lt;=$G28+$H28-1),1,""))</f>
         <v/>
       </c>
       <c r="AA28" s="38" t="str">
@@ -8970,7 +8971,9 @@
       <c r="E29" s="34">
         <v>2</v>
       </c>
-      <c r="F29" s="31"/>
+      <c r="F29" s="31">
+        <v>1</v>
+      </c>
       <c r="G29" s="32">
         <v>43787</v>
       </c>
@@ -9217,7 +9220,9 @@
       <c r="E30" s="34">
         <v>2</v>
       </c>
-      <c r="F30" s="31"/>
+      <c r="F30" s="31">
+        <v>1</v>
+      </c>
       <c r="G30" s="32">
         <v>43787</v>
       </c>
@@ -9414,7 +9419,7 @@
         <v/>
       </c>
       <c r="BE30" s="38" t="str">
-        <f t="shared" ref="BE30:BM41" ca="1" si="20">IF(AND($D30="Goal",BE$5&gt;=$G30,BE$5&lt;=$G30+$H30-1),2,IF(AND($D30="Milestone",BE$5&gt;=$G30,BE$5&lt;=$G30+$H30-1),1,""))</f>
+        <f t="shared" ref="BE30:BM42" ca="1" si="20">IF(AND($D30="Goal",BE$5&gt;=$G30,BE$5&lt;=$G30+$H30-1),2,IF(AND($D30="Milestone",BE$5&gt;=$G30,BE$5&lt;=$G30+$H30-1),1,""))</f>
         <v/>
       </c>
       <c r="BF30" s="38" t="str">
@@ -9453,7 +9458,7 @@
     <row r="31" spans="1:65" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C31" s="41" t="s">
         <v>67</v>
@@ -9599,7 +9604,7 @@
         <v/>
       </c>
       <c r="AP31" s="38" t="str">
-        <f t="shared" ref="AP31:BE41" ca="1" si="21">IF(AND($D31="Goal",AP$5&gt;=$G31,AP$5&lt;=$G31+$H31-1),2,IF(AND($D31="Milestone",AP$5&gt;=$G31,AP$5&lt;=$G31+$H31-1),1,""))</f>
+        <f t="shared" ref="AP31:BE42" ca="1" si="21">IF(AND($D31="Goal",AP$5&gt;=$G31,AP$5&lt;=$G31+$H31-1),2,IF(AND($D31="Milestone",AP$5&gt;=$G31,AP$5&lt;=$G31+$H31-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ31" s="38" t="str">
@@ -10342,7 +10347,7 @@
     <row r="36" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="41" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C36" s="41" t="s">
         <v>67</v>
@@ -10351,10 +10356,12 @@
         <v>17</v>
       </c>
       <c r="E36" s="34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
+      <c r="G36" s="32">
+        <v>43788</v>
+      </c>
       <c r="H36" s="33">
         <v>1</v>
       </c>
@@ -10419,7 +10426,7 @@
     <row r="37" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="41" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C37" s="41" t="s">
         <v>67</v>
@@ -10428,7 +10435,7 @@
         <v>17</v>
       </c>
       <c r="E37" s="34">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="F37" s="31"/>
       <c r="G37" s="32"/>
@@ -10496,7 +10503,7 @@
     <row r="38" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="41" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C38" s="41" t="s">
         <v>67</v>
@@ -10513,241 +10520,73 @@
         <v>1</v>
       </c>
       <c r="I38" s="26"/>
-      <c r="J38" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="K38" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="L38" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="M38" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="N38" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="O38" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="P38" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="Q38" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="R38" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="S38" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="T38" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="U38" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="V38" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="W38" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="X38" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="Y38" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="Z38" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AA38" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AB38" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AC38" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AD38" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AE38" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AF38" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AG38" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AH38" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AI38" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AJ38" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AK38" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AL38" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AM38" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AN38" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AO38" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AP38" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AQ38" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AR38" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AS38" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AT38" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AU38" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AV38" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AW38" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AX38" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AY38" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AZ38" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="BA38" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="BB38" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="BC38" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="BD38" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="BE38" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="BF38" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BG38" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BH38" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BI38" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BJ38" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BK38" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BL38" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BM38" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="38"/>
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="38"/>
+      <c r="AB38" s="38"/>
+      <c r="AC38" s="38"/>
+      <c r="AD38" s="38"/>
+      <c r="AE38" s="38"/>
+      <c r="AF38" s="38"/>
+      <c r="AG38" s="38"/>
+      <c r="AH38" s="38"/>
+      <c r="AI38" s="38"/>
+      <c r="AJ38" s="38"/>
+      <c r="AK38" s="38"/>
+      <c r="AL38" s="38"/>
+      <c r="AM38" s="38"/>
+      <c r="AN38" s="38"/>
+      <c r="AO38" s="38"/>
+      <c r="AP38" s="38"/>
+      <c r="AQ38" s="38"/>
+      <c r="AR38" s="38"/>
+      <c r="AS38" s="38"/>
+      <c r="AT38" s="38"/>
+      <c r="AU38" s="38"/>
+      <c r="AV38" s="38"/>
+      <c r="AW38" s="38"/>
+      <c r="AX38" s="38"/>
+      <c r="AY38" s="38"/>
+      <c r="AZ38" s="38"/>
+      <c r="BA38" s="38"/>
+      <c r="BB38" s="38"/>
+      <c r="BC38" s="38"/>
+      <c r="BD38" s="38"/>
+      <c r="BE38" s="38"/>
+      <c r="BF38" s="38"/>
+      <c r="BG38" s="38"/>
+      <c r="BH38" s="38"/>
+      <c r="BI38" s="38"/>
+      <c r="BJ38" s="38"/>
+      <c r="BK38" s="38"/>
+      <c r="BL38" s="38"/>
+      <c r="BM38" s="38"/>
     </row>
     <row r="39" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="41" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="C39" s="41" t="s">
         <v>67</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39" s="34">
         <v>4</v>
@@ -10986,643 +10825,651 @@
     <row r="40" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="41"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
+        <v>95</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="34">
+        <v>4</v>
+      </c>
       <c r="F40" s="31"/>
       <c r="G40" s="32"/>
-      <c r="H40" s="33"/>
+      <c r="H40" s="33">
+        <v>1</v>
+      </c>
       <c r="I40" s="26"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="38"/>
-      <c r="Z40" s="38"/>
-      <c r="AA40" s="38"/>
-      <c r="AB40" s="38"/>
-      <c r="AC40" s="38"/>
-      <c r="AD40" s="38"/>
-      <c r="AE40" s="38"/>
-      <c r="AF40" s="38"/>
-      <c r="AG40" s="38"/>
-      <c r="AH40" s="38"/>
-      <c r="AI40" s="38"/>
-      <c r="AJ40" s="38"/>
-      <c r="AK40" s="38"/>
-      <c r="AL40" s="38"/>
-      <c r="AM40" s="38"/>
-      <c r="AN40" s="38"/>
-      <c r="AO40" s="38"/>
-      <c r="AP40" s="38"/>
-      <c r="AQ40" s="38"/>
-      <c r="AR40" s="38"/>
-      <c r="AS40" s="38"/>
-      <c r="AT40" s="38"/>
-      <c r="AU40" s="38"/>
-      <c r="AV40" s="38"/>
-      <c r="AW40" s="38"/>
-      <c r="AX40" s="38"/>
-      <c r="AY40" s="38"/>
-      <c r="AZ40" s="38"/>
-      <c r="BA40" s="38"/>
-      <c r="BB40" s="38"/>
-      <c r="BC40" s="38"/>
-      <c r="BD40" s="38"/>
-      <c r="BE40" s="38"/>
-      <c r="BF40" s="38"/>
-      <c r="BG40" s="38"/>
-      <c r="BH40" s="38"/>
-      <c r="BI40" s="38"/>
-      <c r="BJ40" s="38"/>
-      <c r="BK40" s="38"/>
-      <c r="BL40" s="38"/>
-      <c r="BM40" s="38"/>
+      <c r="J40" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="K40" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="L40" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="M40" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="N40" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="O40" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="P40" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="Q40" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="R40" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="S40" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="T40" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="U40" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="V40" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="W40" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="X40" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="Y40" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="Z40" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AA40" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AB40" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AC40" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AD40" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AE40" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AF40" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AG40" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AH40" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AI40" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AJ40" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AK40" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AL40" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AM40" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AN40" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AO40" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AP40" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AQ40" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AR40" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AS40" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AT40" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AU40" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AV40" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AW40" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AX40" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AY40" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AZ40" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BA40" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BB40" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BC40" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BD40" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BE40" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BF40" s="38" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BG40" s="38" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BH40" s="38" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BI40" s="38" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BJ40" s="38" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BK40" s="38" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BL40" s="38" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BM40" s="38" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
     </row>
     <row r="41" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
+      <c r="B41" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="34">
+        <v>2</v>
+      </c>
       <c r="F41" s="31"/>
       <c r="G41" s="32"/>
-      <c r="H41" s="33"/>
+      <c r="H41" s="33">
+        <v>1</v>
+      </c>
       <c r="I41" s="26"/>
-      <c r="J41" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="K41" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="L41" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="M41" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="N41" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="O41" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="P41" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="Q41" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="R41" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="S41" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="T41" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="U41" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="V41" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="W41" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="X41" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="Y41" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v/>
-      </c>
-      <c r="Z41" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AA41" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AB41" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AC41" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AD41" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AE41" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AF41" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AG41" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AH41" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AI41" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AJ41" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AK41" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AL41" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AM41" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AN41" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AO41" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AP41" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AQ41" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AR41" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AS41" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AT41" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AU41" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AV41" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AW41" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AX41" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AY41" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AZ41" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="BA41" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="BB41" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="BC41" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="BD41" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="BE41" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="BF41" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BG41" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BH41" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BI41" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BJ41" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BK41" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BL41" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BM41" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="38"/>
+      <c r="X41" s="38"/>
+      <c r="Y41" s="38"/>
+      <c r="Z41" s="38"/>
+      <c r="AA41" s="38"/>
+      <c r="AB41" s="38"/>
+      <c r="AC41" s="38"/>
+      <c r="AD41" s="38"/>
+      <c r="AE41" s="38"/>
+      <c r="AF41" s="38"/>
+      <c r="AG41" s="38"/>
+      <c r="AH41" s="38"/>
+      <c r="AI41" s="38"/>
+      <c r="AJ41" s="38"/>
+      <c r="AK41" s="38"/>
+      <c r="AL41" s="38"/>
+      <c r="AM41" s="38"/>
+      <c r="AN41" s="38"/>
+      <c r="AO41" s="38"/>
+      <c r="AP41" s="38"/>
+      <c r="AQ41" s="38"/>
+      <c r="AR41" s="38"/>
+      <c r="AS41" s="38"/>
+      <c r="AT41" s="38"/>
+      <c r="AU41" s="38"/>
+      <c r="AV41" s="38"/>
+      <c r="AW41" s="38"/>
+      <c r="AX41" s="38"/>
+      <c r="AY41" s="38"/>
+      <c r="AZ41" s="38"/>
+      <c r="BA41" s="38"/>
+      <c r="BB41" s="38"/>
+      <c r="BC41" s="38"/>
+      <c r="BD41" s="38"/>
+      <c r="BE41" s="38"/>
+      <c r="BF41" s="38"/>
+      <c r="BG41" s="38"/>
+      <c r="BH41" s="38"/>
+      <c r="BI41" s="38"/>
+      <c r="BJ41" s="38"/>
+      <c r="BK41" s="38"/>
+      <c r="BL41" s="38"/>
+      <c r="BM41" s="38"/>
     </row>
     <row r="42" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="53" t="s">
-        <v>38</v>
-      </c>
+      <c r="A42" s="14"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="53"/>
       <c r="D42" s="34"/>
       <c r="E42" s="34"/>
       <c r="F42" s="31"/>
-      <c r="G42" s="32">
-        <v>43801</v>
-      </c>
-      <c r="H42" s="33">
-        <v>14</v>
-      </c>
+      <c r="G42" s="32"/>
+      <c r="H42" s="33"/>
       <c r="I42" s="26"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="38"/>
-      <c r="X42" s="38"/>
-      <c r="Y42" s="38"/>
-      <c r="Z42" s="38"/>
-      <c r="AA42" s="38"/>
-      <c r="AB42" s="38"/>
-      <c r="AC42" s="38"/>
-      <c r="AD42" s="38"/>
-      <c r="AE42" s="38"/>
-      <c r="AF42" s="38"/>
-      <c r="AG42" s="38"/>
-      <c r="AH42" s="38"/>
-      <c r="AI42" s="38"/>
-      <c r="AJ42" s="38"/>
-      <c r="AK42" s="38"/>
-      <c r="AL42" s="38"/>
-      <c r="AM42" s="38"/>
-      <c r="AN42" s="38"/>
-      <c r="AO42" s="38"/>
-      <c r="AP42" s="38"/>
-      <c r="AQ42" s="38"/>
-      <c r="AR42" s="38"/>
-      <c r="AS42" s="38"/>
-      <c r="AT42" s="38"/>
-      <c r="AU42" s="38"/>
-      <c r="AV42" s="38"/>
-      <c r="AW42" s="38"/>
-      <c r="AX42" s="38"/>
-      <c r="AY42" s="38"/>
-      <c r="AZ42" s="38"/>
-      <c r="BA42" s="38"/>
-      <c r="BB42" s="38"/>
-      <c r="BC42" s="38"/>
-      <c r="BD42" s="38"/>
-      <c r="BE42" s="38"/>
-      <c r="BF42" s="38"/>
-      <c r="BG42" s="38"/>
-      <c r="BH42" s="38"/>
-      <c r="BI42" s="38"/>
-      <c r="BJ42" s="38"/>
-      <c r="BK42" s="38"/>
-      <c r="BL42" s="38"/>
-      <c r="BM42" s="38"/>
+      <c r="J42" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="K42" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="L42" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="M42" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="N42" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="O42" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="P42" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="Q42" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="R42" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="S42" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="T42" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="U42" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="V42" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="W42" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="X42" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="Y42" s="38" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+      <c r="Z42" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AA42" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AB42" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AC42" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AD42" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AE42" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AF42" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AG42" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AH42" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AI42" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AJ42" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AK42" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AL42" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AM42" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AN42" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AO42" s="38" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v/>
+      </c>
+      <c r="AP42" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AQ42" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AR42" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AS42" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AT42" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AU42" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AV42" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AW42" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AX42" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AY42" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="AZ42" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BA42" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BB42" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BC42" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BD42" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BE42" s="38" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BF42" s="38" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BG42" s="38" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BH42" s="38" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BI42" s="38" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BJ42" s="38" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BK42" s="38" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BL42" s="38" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
+      <c r="BM42" s="38" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v/>
+      </c>
     </row>
     <row r="43" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="53" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C43" s="53"/>
       <c r="D43" s="34"/>
       <c r="E43" s="34"/>
       <c r="F43" s="31"/>
       <c r="G43" s="32">
-        <v>43815</v>
+        <v>43801</v>
       </c>
       <c r="H43" s="33">
         <v>14</v>
       </c>
       <c r="I43" s="26"/>
-      <c r="J43" s="38" t="str">
-        <f t="shared" ref="J43:S45" ca="1" si="22">IF(AND($D43="Goal",J$5&gt;=$G43,J$5&lt;=$G43+$H43-1),2,IF(AND($D43="Milestone",J$5&gt;=$G43,J$5&lt;=$G43+$H43-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K43" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="L43" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="M43" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="N43" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="O43" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="P43" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="Q43" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="R43" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="S43" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="T43" s="38" t="str">
-        <f t="shared" ref="T43:AC45" ca="1" si="23">IF(AND($D43="Goal",T$5&gt;=$G43,T$5&lt;=$G43+$H43-1),2,IF(AND($D43="Milestone",T$5&gt;=$G43,T$5&lt;=$G43+$H43-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="U43" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="V43" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="W43" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="X43" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="Y43" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="Z43" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AA43" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AB43" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AC43" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AD43" s="38" t="str">
-        <f t="shared" ref="AD43:AM45" ca="1" si="24">IF(AND($D43="Goal",AD$5&gt;=$G43,AD$5&lt;=$G43+$H43-1),2,IF(AND($D43="Milestone",AD$5&gt;=$G43,AD$5&lt;=$G43+$H43-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AE43" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AF43" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AG43" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AH43" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AI43" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AJ43" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AK43" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AL43" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AM43" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AN43" s="38" t="str">
-        <f t="shared" ref="AN43:AW45" ca="1" si="25">IF(AND($D43="Goal",AN$5&gt;=$G43,AN$5&lt;=$G43+$H43-1),2,IF(AND($D43="Milestone",AN$5&gt;=$G43,AN$5&lt;=$G43+$H43-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AO43" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AP43" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AQ43" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AR43" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AS43" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AT43" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AU43" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AV43" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AW43" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AX43" s="38" t="str">
-        <f t="shared" ref="AX43:BG45" ca="1" si="26">IF(AND($D43="Goal",AX$5&gt;=$G43,AX$5&lt;=$G43+$H43-1),2,IF(AND($D43="Milestone",AX$5&gt;=$G43,AX$5&lt;=$G43+$H43-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AY43" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="AZ43" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BA43" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BB43" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BC43" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BD43" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BE43" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BF43" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BG43" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BH43" s="38" t="str">
-        <f t="shared" ref="BH43:BM45" ca="1" si="27">IF(AND($D43="Goal",BH$5&gt;=$G43,BH$5&lt;=$G43+$H43-1),2,IF(AND($D43="Milestone",BH$5&gt;=$G43,BH$5&lt;=$G43+$H43-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BI43" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="BJ43" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="BK43" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="BL43" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
-      <c r="BM43" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v/>
-      </c>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="38"/>
+      <c r="V43" s="38"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="38"/>
+      <c r="Y43" s="38"/>
+      <c r="Z43" s="38"/>
+      <c r="AA43" s="38"/>
+      <c r="AB43" s="38"/>
+      <c r="AC43" s="38"/>
+      <c r="AD43" s="38"/>
+      <c r="AE43" s="38"/>
+      <c r="AF43" s="38"/>
+      <c r="AG43" s="38"/>
+      <c r="AH43" s="38"/>
+      <c r="AI43" s="38"/>
+      <c r="AJ43" s="38"/>
+      <c r="AK43" s="38"/>
+      <c r="AL43" s="38"/>
+      <c r="AM43" s="38"/>
+      <c r="AN43" s="38"/>
+      <c r="AO43" s="38"/>
+      <c r="AP43" s="38"/>
+      <c r="AQ43" s="38"/>
+      <c r="AR43" s="38"/>
+      <c r="AS43" s="38"/>
+      <c r="AT43" s="38"/>
+      <c r="AU43" s="38"/>
+      <c r="AV43" s="38"/>
+      <c r="AW43" s="38"/>
+      <c r="AX43" s="38"/>
+      <c r="AY43" s="38"/>
+      <c r="AZ43" s="38"/>
+      <c r="BA43" s="38"/>
+      <c r="BB43" s="38"/>
+      <c r="BC43" s="38"/>
+      <c r="BD43" s="38"/>
+      <c r="BE43" s="38"/>
+      <c r="BF43" s="38"/>
+      <c r="BG43" s="38"/>
+      <c r="BH43" s="38"/>
+      <c r="BI43" s="38"/>
+      <c r="BJ43" s="38"/>
+      <c r="BK43" s="38"/>
+      <c r="BL43" s="38"/>
+      <c r="BM43" s="38"/>
     </row>
     <row r="44" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="34">
-        <v>8</v>
-      </c>
+      <c r="A44" s="15"/>
+      <c r="B44" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="53"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
       <c r="F44" s="31"/>
-      <c r="G44" s="32"/>
+      <c r="G44" s="32">
+        <v>43815</v>
+      </c>
       <c r="H44" s="33">
-        <v>0.5</v>
+        <v>14</v>
       </c>
       <c r="I44" s="26"/>
       <c r="J44" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ref="J44:S46" ca="1" si="22">IF(AND($D44="Goal",J$5&gt;=$G44,J$5&lt;=$G44+$H44-1),2,IF(AND($D44="Milestone",J$5&gt;=$G44,J$5&lt;=$G44+$H44-1),1,""))</f>
         <v/>
       </c>
       <c r="K44" s="38" t="str">
@@ -11662,7 +11509,7 @@
         <v/>
       </c>
       <c r="T44" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ref="T44:AC46" ca="1" si="23">IF(AND($D44="Goal",T$5&gt;=$G44,T$5&lt;=$G44+$H44-1),2,IF(AND($D44="Milestone",T$5&gt;=$G44,T$5&lt;=$G44+$H44-1),1,""))</f>
         <v/>
       </c>
       <c r="U44" s="38" t="str">
@@ -11702,7 +11549,7 @@
         <v/>
       </c>
       <c r="AD44" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ref="AD44:AM46" ca="1" si="24">IF(AND($D44="Goal",AD$5&gt;=$G44,AD$5&lt;=$G44+$H44-1),2,IF(AND($D44="Milestone",AD$5&gt;=$G44,AD$5&lt;=$G44+$H44-1),1,""))</f>
         <v/>
       </c>
       <c r="AE44" s="38" t="str">
@@ -11742,7 +11589,7 @@
         <v/>
       </c>
       <c r="AN44" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ref="AN44:AW46" ca="1" si="25">IF(AND($D44="Goal",AN$5&gt;=$G44,AN$5&lt;=$G44+$H44-1),2,IF(AND($D44="Milestone",AN$5&gt;=$G44,AN$5&lt;=$G44+$H44-1),1,""))</f>
         <v/>
       </c>
       <c r="AO44" s="38" t="str">
@@ -11782,7 +11629,7 @@
         <v/>
       </c>
       <c r="AX44" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ref="AX44:BG46" ca="1" si="26">IF(AND($D44="Goal",AX$5&gt;=$G44,AX$5&lt;=$G44+$H44-1),2,IF(AND($D44="Milestone",AX$5&gt;=$G44,AX$5&lt;=$G44+$H44-1),1,""))</f>
         <v/>
       </c>
       <c r="AY44" s="38" t="str">
@@ -11822,7 +11669,7 @@
         <v/>
       </c>
       <c r="BH44" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ref="BH44:BM46" ca="1" si="27">IF(AND($D44="Goal",BH$5&gt;=$G44,BH$5&lt;=$G44+$H44-1),2,IF(AND($D44="Milestone",BH$5&gt;=$G44,BH$5&lt;=$G44+$H44-1),1,""))</f>
         <v/>
       </c>
       <c r="BI44" s="38" t="str">
@@ -11849,16 +11696,16 @@
     <row r="45" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="41" t="s">
         <v>67</v>
       </c>
       <c r="D45" s="34" t="s">
         <v>17</v>
       </c>
       <c r="E45" s="34">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F45" s="31"/>
       <c r="G45" s="32"/>
@@ -12094,7 +11941,7 @@
     <row r="46" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C46" s="53" t="s">
         <v>67</v>
@@ -12112,236 +11959,236 @@
       </c>
       <c r="I46" s="26"/>
       <c r="J46" s="38" t="str">
-        <f t="shared" ref="J46:S52" ca="1" si="28">IF(AND($D46="Goal",J$5&gt;=$G46,J$5&lt;=$G46+$H46-1),2,IF(AND($D46="Milestone",J$5&gt;=$G46,J$5&lt;=$G46+$H46-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="K46" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="L46" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="M46" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="N46" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="O46" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="P46" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="Q46" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="R46" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="S46" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="T46" s="38" t="str">
-        <f t="shared" ref="T46:AC52" ca="1" si="29">IF(AND($D46="Goal",T$5&gt;=$G46,T$5&lt;=$G46+$H46-1),2,IF(AND($D46="Milestone",T$5&gt;=$G46,T$5&lt;=$G46+$H46-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="U46" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="V46" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="W46" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="X46" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="Y46" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="Z46" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AA46" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AB46" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AC46" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AD46" s="38" t="str">
-        <f t="shared" ref="AD46:AM52" ca="1" si="30">IF(AND($D46="Goal",AD$5&gt;=$G46,AD$5&lt;=$G46+$H46-1),2,IF(AND($D46="Milestone",AD$5&gt;=$G46,AD$5&lt;=$G46+$H46-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AE46" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AF46" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AG46" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AH46" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AI46" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AJ46" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AK46" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AL46" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AM46" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AN46" s="38" t="str">
-        <f t="shared" ref="AN46:AW52" ca="1" si="31">IF(AND($D46="Goal",AN$5&gt;=$G46,AN$5&lt;=$G46+$H46-1),2,IF(AND($D46="Milestone",AN$5&gt;=$G46,AN$5&lt;=$G46+$H46-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AO46" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AP46" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AQ46" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AR46" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AS46" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AT46" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AU46" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AV46" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AW46" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AX46" s="38" t="str">
-        <f t="shared" ref="AX46:BG52" ca="1" si="32">IF(AND($D46="Goal",AX$5&gt;=$G46,AX$5&lt;=$G46+$H46-1),2,IF(AND($D46="Milestone",AX$5&gt;=$G46,AX$5&lt;=$G46+$H46-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AY46" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AZ46" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BA46" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BB46" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BC46" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BD46" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BE46" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BF46" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BG46" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BH46" s="38" t="str">
-        <f t="shared" ref="BH46:BM52" ca="1" si="33">IF(AND($D46="Goal",BH$5&gt;=$G46,BH$5&lt;=$G46+$H46-1),2,IF(AND($D46="Milestone",BH$5&gt;=$G46,BH$5&lt;=$G46+$H46-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BI46" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BJ46" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BK46" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BL46" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BM46" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="53" t="s">
         <v>67</v>
       </c>
       <c r="D47" s="34" t="s">
@@ -12353,11 +12200,11 @@
       <c r="F47" s="31"/>
       <c r="G47" s="32"/>
       <c r="H47" s="33">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I47" s="26"/>
       <c r="J47" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ref="J47:S53" ca="1" si="28">IF(AND($D47="Goal",J$5&gt;=$G47,J$5&lt;=$G47+$H47-1),2,IF(AND($D47="Milestone",J$5&gt;=$G47,J$5&lt;=$G47+$H47-1),1,""))</f>
         <v/>
       </c>
       <c r="K47" s="38" t="str">
@@ -12397,7 +12244,7 @@
         <v/>
       </c>
       <c r="T47" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ref="T47:AC53" ca="1" si="29">IF(AND($D47="Goal",T$5&gt;=$G47,T$5&lt;=$G47+$H47-1),2,IF(AND($D47="Milestone",T$5&gt;=$G47,T$5&lt;=$G47+$H47-1),1,""))</f>
         <v/>
       </c>
       <c r="U47" s="38" t="str">
@@ -12437,7 +12284,7 @@
         <v/>
       </c>
       <c r="AD47" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ref="AD47:AM53" ca="1" si="30">IF(AND($D47="Goal",AD$5&gt;=$G47,AD$5&lt;=$G47+$H47-1),2,IF(AND($D47="Milestone",AD$5&gt;=$G47,AD$5&lt;=$G47+$H47-1),1,""))</f>
         <v/>
       </c>
       <c r="AE47" s="38" t="str">
@@ -12477,7 +12324,7 @@
         <v/>
       </c>
       <c r="AN47" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ref="AN47:AW53" ca="1" si="31">IF(AND($D47="Goal",AN$5&gt;=$G47,AN$5&lt;=$G47+$H47-1),2,IF(AND($D47="Milestone",AN$5&gt;=$G47,AN$5&lt;=$G47+$H47-1),1,""))</f>
         <v/>
       </c>
       <c r="AO47" s="38" t="str">
@@ -12517,7 +12364,7 @@
         <v/>
       </c>
       <c r="AX47" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ref="AX47:BG53" ca="1" si="32">IF(AND($D47="Goal",AX$5&gt;=$G47,AX$5&lt;=$G47+$H47-1),2,IF(AND($D47="Milestone",AX$5&gt;=$G47,AX$5&lt;=$G47+$H47-1),1,""))</f>
         <v/>
       </c>
       <c r="AY47" s="38" t="str">
@@ -12557,7 +12404,7 @@
         <v/>
       </c>
       <c r="BH47" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ref="BH47:BM53" ca="1" si="33">IF(AND($D47="Goal",BH$5&gt;=$G47,BH$5&lt;=$G47+$H47-1),2,IF(AND($D47="Milestone",BH$5&gt;=$G47,BH$5&lt;=$G47+$H47-1),1,""))</f>
         <v/>
       </c>
       <c r="BI47" s="38" t="str">
@@ -12584,7 +12431,7 @@
     <row r="48" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="41" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C48" s="41" t="s">
         <v>67</v>
@@ -12829,7 +12676,7 @@
     <row r="49" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="41" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="C49" s="41" t="s">
         <v>67</v>
@@ -12838,7 +12685,7 @@
         <v>17</v>
       </c>
       <c r="E49" s="34">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F49" s="31"/>
       <c r="G49" s="32"/>
@@ -13083,7 +12930,7 @@
         <v>17</v>
       </c>
       <c r="E50" s="34">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F50" s="31"/>
       <c r="G50" s="32"/>
@@ -13319,7 +13166,7 @@
     <row r="51" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="41" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C51" s="41" t="s">
         <v>67</v>
@@ -13328,7 +13175,7 @@
         <v>17</v>
       </c>
       <c r="E51" s="34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F51" s="31"/>
       <c r="G51" s="32"/>
@@ -13564,7 +13411,7 @@
     <row r="52" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="41" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="C52" s="41" t="s">
         <v>67</v>
@@ -13573,12 +13420,12 @@
         <v>17</v>
       </c>
       <c r="E52" s="34">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F52" s="31"/>
       <c r="G52" s="32"/>
       <c r="H52" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I52" s="26"/>
       <c r="J52" s="38" t="str">
@@ -13808,641 +13655,645 @@
     </row>
     <row r="53" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
-      <c r="B53" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="55"/>
-      <c r="D53" s="34"/>
+      <c r="B53" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>17</v>
+      </c>
       <c r="E53" s="34">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F53" s="31"/>
       <c r="G53" s="32"/>
-      <c r="H53" s="33"/>
+      <c r="H53" s="33">
+        <v>3</v>
+      </c>
       <c r="I53" s="26"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="38"/>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="38"/>
-      <c r="R53" s="38"/>
-      <c r="S53" s="38"/>
-      <c r="T53" s="38"/>
-      <c r="U53" s="38"/>
-      <c r="V53" s="38"/>
-      <c r="W53" s="38"/>
-      <c r="X53" s="38"/>
-      <c r="Y53" s="38"/>
-      <c r="Z53" s="38"/>
-      <c r="AA53" s="38"/>
-      <c r="AB53" s="38"/>
-      <c r="AC53" s="38"/>
-      <c r="AD53" s="38"/>
-      <c r="AE53" s="38"/>
-      <c r="AF53" s="38"/>
-      <c r="AG53" s="38"/>
-      <c r="AH53" s="38"/>
-      <c r="AI53" s="38"/>
-      <c r="AJ53" s="38"/>
-      <c r="AK53" s="38"/>
-      <c r="AL53" s="38"/>
-      <c r="AM53" s="38"/>
-      <c r="AN53" s="38"/>
-      <c r="AO53" s="38"/>
-      <c r="AP53" s="38"/>
-      <c r="AQ53" s="38"/>
-      <c r="AR53" s="38"/>
-      <c r="AS53" s="38"/>
-      <c r="AT53" s="38"/>
-      <c r="AU53" s="38"/>
-      <c r="AV53" s="38"/>
-      <c r="AW53" s="38"/>
-      <c r="AX53" s="38"/>
-      <c r="AY53" s="38"/>
-      <c r="AZ53" s="38"/>
-      <c r="BA53" s="38"/>
-      <c r="BB53" s="38"/>
-      <c r="BC53" s="38"/>
-      <c r="BD53" s="38"/>
-      <c r="BE53" s="38"/>
-      <c r="BF53" s="38"/>
-      <c r="BG53" s="38"/>
-      <c r="BH53" s="38"/>
-      <c r="BI53" s="38"/>
-      <c r="BJ53" s="38"/>
-      <c r="BK53" s="38"/>
-      <c r="BL53" s="38"/>
-      <c r="BM53" s="38"/>
+      <c r="J53" s="38" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="K53" s="38" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="L53" s="38" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="M53" s="38" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="N53" s="38" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="O53" s="38" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="P53" s="38" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="Q53" s="38" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="R53" s="38" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="S53" s="38" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="T53" s="38" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="U53" s="38" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="V53" s="38" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="W53" s="38" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="X53" s="38" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="Y53" s="38" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="Z53" s="38" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AA53" s="38" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AB53" s="38" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AC53" s="38" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v/>
+      </c>
+      <c r="AD53" s="38" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AE53" s="38" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AF53" s="38" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AG53" s="38" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AH53" s="38" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AI53" s="38" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AJ53" s="38" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AK53" s="38" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AL53" s="38" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AM53" s="38" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v/>
+      </c>
+      <c r="AN53" s="38" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AO53" s="38" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AP53" s="38" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AQ53" s="38" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AR53" s="38" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AS53" s="38" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AT53" s="38" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AU53" s="38" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AV53" s="38" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AW53" s="38" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v/>
+      </c>
+      <c r="AX53" s="38" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="AY53" s="38" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="AZ53" s="38" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="BA53" s="38" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="BB53" s="38" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="BC53" s="38" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="BD53" s="38" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="BE53" s="38" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="BF53" s="38" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="BG53" s="38" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="BH53" s="38" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="BI53" s="38" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="BJ53" s="38" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="BK53" s="38" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="BL53" s="38" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="BM53" s="38" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
+      <c r="B54" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="55"/>
       <c r="D54" s="34"/>
       <c r="E54" s="34">
-        <f>SUBTOTAL(109,E8:E53)</f>
-        <v>173.5</v>
+        <v>36</v>
       </c>
       <c r="F54" s="31"/>
       <c r="G54" s="32"/>
       <c r="H54" s="33"/>
       <c r="I54" s="26"/>
-      <c r="J54" s="38" t="str">
-        <f t="shared" ref="J54:AO54" ca="1" si="34">IF(AND($D54="Goal",J$5&gt;=$G54,J$5&lt;=$G54+$H54-1),2,IF(AND($D54="Milestone",J$5&gt;=$G54,J$5&lt;=$G54+$H54-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="L54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="M54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="N54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="O54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="P54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="Q54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="R54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="S54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="T54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="U54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="V54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="W54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="X54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="Y54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="Z54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AA54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AB54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AC54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AD54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AE54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AF54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AG54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AH54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AI54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AJ54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AK54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AL54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AM54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AN54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AO54" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AP54" s="38" t="str">
-        <f t="shared" ref="AP54:BM54" ca="1" si="35">IF(AND($D54="Goal",AP$5&gt;=$G54,AP$5&lt;=$G54+$H54-1),2,IF(AND($D54="Milestone",AP$5&gt;=$G54,AP$5&lt;=$G54+$H54-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AQ54" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AR54" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AS54" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AT54" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AU54" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AV54" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AW54" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AX54" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AY54" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AZ54" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BA54" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BB54" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BC54" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BD54" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BE54" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BF54" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BG54" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BH54" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BI54" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BJ54" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BK54" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BL54" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="BM54" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="38"/>
+      <c r="P54" s="38"/>
+      <c r="Q54" s="38"/>
+      <c r="R54" s="38"/>
+      <c r="S54" s="38"/>
+      <c r="T54" s="38"/>
+      <c r="U54" s="38"/>
+      <c r="V54" s="38"/>
+      <c r="W54" s="38"/>
+      <c r="X54" s="38"/>
+      <c r="Y54" s="38"/>
+      <c r="Z54" s="38"/>
+      <c r="AA54" s="38"/>
+      <c r="AB54" s="38"/>
+      <c r="AC54" s="38"/>
+      <c r="AD54" s="38"/>
+      <c r="AE54" s="38"/>
+      <c r="AF54" s="38"/>
+      <c r="AG54" s="38"/>
+      <c r="AH54" s="38"/>
+      <c r="AI54" s="38"/>
+      <c r="AJ54" s="38"/>
+      <c r="AK54" s="38"/>
+      <c r="AL54" s="38"/>
+      <c r="AM54" s="38"/>
+      <c r="AN54" s="38"/>
+      <c r="AO54" s="38"/>
+      <c r="AP54" s="38"/>
+      <c r="AQ54" s="38"/>
+      <c r="AR54" s="38"/>
+      <c r="AS54" s="38"/>
+      <c r="AT54" s="38"/>
+      <c r="AU54" s="38"/>
+      <c r="AV54" s="38"/>
+      <c r="AW54" s="38"/>
+      <c r="AX54" s="38"/>
+      <c r="AY54" s="38"/>
+      <c r="AZ54" s="38"/>
+      <c r="BA54" s="38"/>
+      <c r="BB54" s="38"/>
+      <c r="BC54" s="38"/>
+      <c r="BD54" s="38"/>
+      <c r="BE54" s="38"/>
+      <c r="BF54" s="38"/>
+      <c r="BG54" s="38"/>
+      <c r="BH54" s="38"/>
+      <c r="BI54" s="38"/>
+      <c r="BJ54" s="38"/>
+      <c r="BK54" s="38"/>
+      <c r="BL54" s="38"/>
+      <c r="BM54" s="38"/>
     </row>
     <row r="55" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="B55" s="41"/>
       <c r="C55" s="41"/>
       <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
+      <c r="E55" s="34">
+        <f>SUBTOTAL(109,E8:E54)</f>
+        <v>175.5</v>
+      </c>
       <c r="F55" s="31"/>
       <c r="G55" s="32"/>
       <c r="H55" s="33"/>
       <c r="I55" s="26"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="38"/>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="38"/>
-      <c r="R55" s="38"/>
-      <c r="S55" s="38"/>
-      <c r="T55" s="38"/>
-      <c r="U55" s="38"/>
-      <c r="V55" s="38"/>
-      <c r="W55" s="38"/>
-      <c r="X55" s="38"/>
-      <c r="Y55" s="38"/>
-      <c r="Z55" s="38"/>
-      <c r="AA55" s="38"/>
-      <c r="AB55" s="38"/>
-      <c r="AC55" s="38"/>
-      <c r="AD55" s="38"/>
-      <c r="AE55" s="38"/>
-      <c r="AF55" s="38"/>
-      <c r="AG55" s="38"/>
-      <c r="AH55" s="38"/>
-      <c r="AI55" s="38"/>
-      <c r="AJ55" s="38"/>
-      <c r="AK55" s="38"/>
-      <c r="AL55" s="38"/>
-      <c r="AM55" s="38"/>
-      <c r="AN55" s="38"/>
-      <c r="AO55" s="38"/>
-      <c r="AP55" s="38"/>
-      <c r="AQ55" s="38"/>
-      <c r="AR55" s="38"/>
-      <c r="AS55" s="38"/>
-      <c r="AT55" s="38"/>
-      <c r="AU55" s="38"/>
-      <c r="AV55" s="38"/>
-      <c r="AW55" s="38"/>
-      <c r="AX55" s="38"/>
-      <c r="AY55" s="38"/>
-      <c r="AZ55" s="38"/>
-      <c r="BA55" s="38"/>
-      <c r="BB55" s="38"/>
-      <c r="BC55" s="38"/>
-      <c r="BD55" s="38"/>
-      <c r="BE55" s="38"/>
-      <c r="BF55" s="38"/>
-      <c r="BG55" s="38"/>
-      <c r="BH55" s="38"/>
-      <c r="BI55" s="38"/>
-      <c r="BJ55" s="38"/>
-      <c r="BK55" s="38"/>
-      <c r="BL55" s="38"/>
-      <c r="BM55" s="38"/>
+      <c r="J55" s="38" t="str">
+        <f t="shared" ref="J55:AO55" ca="1" si="34">IF(AND($D55="Goal",J$5&gt;=$G55,J$5&lt;=$G55+$H55-1),2,IF(AND($D55="Milestone",J$5&gt;=$G55,J$5&lt;=$G55+$H55-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="L55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="M55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="N55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="O55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="P55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="Q55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="R55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="S55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="T55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="U55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="V55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="W55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="X55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="Y55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="Z55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AA55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AB55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AC55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AD55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AE55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AF55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AG55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AH55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AI55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AJ55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AK55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AL55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AM55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AN55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AO55" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AP55" s="38" t="str">
+        <f t="shared" ref="AP55:BM55" ca="1" si="35">IF(AND($D55="Goal",AP$5&gt;=$G55,AP$5&lt;=$G55+$H55-1),2,IF(AND($D55="Milestone",AP$5&gt;=$G55,AP$5&lt;=$G55+$H55-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ55" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AR55" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AS55" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AT55" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AU55" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AV55" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AW55" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AX55" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AY55" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AZ55" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BA55" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BB55" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BC55" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BD55" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BE55" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BF55" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BG55" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BH55" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BI55" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BJ55" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BK55" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BL55" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="BM55" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
     </row>
-    <row r="56" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="15"/>
-      <c r="B56" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="54"/>
-      <c r="D56" s="34" t="s">
-        <v>16</v>
-      </c>
+    <row r="56" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="34"/>
       <c r="E56" s="34"/>
       <c r="F56" s="31"/>
-      <c r="G56" s="32">
-        <v>43884</v>
-      </c>
-      <c r="H56" s="33">
-        <v>1</v>
-      </c>
+      <c r="G56" s="32"/>
+      <c r="H56" s="33"/>
       <c r="I56" s="26"/>
-      <c r="J56" s="38" t="str">
-        <f t="shared" ref="J56:S62" ca="1" si="36">IF(AND($D56="Goal",J$5&gt;=$G56,J$5&lt;=$G56+$H56-1),2,IF(AND($D56="Milestone",J$5&gt;=$G56,J$5&lt;=$G56+$H56-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K56" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="L56" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="M56" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="N56" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="O56" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="P56" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="Q56" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="R56" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="S56" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="T56" s="38" t="str">
-        <f t="shared" ref="T56:AC62" ca="1" si="37">IF(AND($D56="Goal",T$5&gt;=$G56,T$5&lt;=$G56+$H56-1),2,IF(AND($D56="Milestone",T$5&gt;=$G56,T$5&lt;=$G56+$H56-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="U56" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="V56" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="W56" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="X56" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="Y56" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="Z56" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AA56" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AB56" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AC56" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="AD56" s="38" t="str">
-        <f t="shared" ref="AD56:AM62" ca="1" si="38">IF(AND($D56="Goal",AD$5&gt;=$G56,AD$5&lt;=$G56+$H56-1),2,IF(AND($D56="Milestone",AD$5&gt;=$G56,AD$5&lt;=$G56+$H56-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AE56" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AF56" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AG56" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AH56" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AI56" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AJ56" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AK56" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AL56" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AM56" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AN56" s="38" t="str">
-        <f t="shared" ref="AN56:AW62" ca="1" si="39">IF(AND($D56="Goal",AN$5&gt;=$G56,AN$5&lt;=$G56+$H56-1),2,IF(AND($D56="Milestone",AN$5&gt;=$G56,AN$5&lt;=$G56+$H56-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AO56" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v/>
-      </c>
-      <c r="AP56" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v/>
-      </c>
-      <c r="AQ56" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v/>
-      </c>
-      <c r="AR56" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v/>
-      </c>
-      <c r="AS56" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v/>
-      </c>
-      <c r="AT56" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v/>
-      </c>
-      <c r="AU56" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v/>
-      </c>
-      <c r="AV56" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v/>
-      </c>
-      <c r="AW56" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v/>
-      </c>
-      <c r="AX56" s="38" t="str">
-        <f t="shared" ref="AX56:BG62" ca="1" si="40">IF(AND($D56="Goal",AX$5&gt;=$G56,AX$5&lt;=$G56+$H56-1),2,IF(AND($D56="Milestone",AX$5&gt;=$G56,AX$5&lt;=$G56+$H56-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AY56" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="AZ56" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="BA56" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="BB56" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="BC56" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="BD56" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="BE56" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="BF56" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="BG56" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="BH56" s="38" t="str">
-        <f t="shared" ref="BH56:BM62" ca="1" si="41">IF(AND($D56="Goal",BH$5&gt;=$G56,BH$5&lt;=$G56+$H56-1),2,IF(AND($D56="Milestone",BH$5&gt;=$G56,BH$5&lt;=$G56+$H56-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BI56" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="BJ56" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="BK56" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="BL56" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="BM56" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="38"/>
+      <c r="T56" s="38"/>
+      <c r="U56" s="38"/>
+      <c r="V56" s="38"/>
+      <c r="W56" s="38"/>
+      <c r="X56" s="38"/>
+      <c r="Y56" s="38"/>
+      <c r="Z56" s="38"/>
+      <c r="AA56" s="38"/>
+      <c r="AB56" s="38"/>
+      <c r="AC56" s="38"/>
+      <c r="AD56" s="38"/>
+      <c r="AE56" s="38"/>
+      <c r="AF56" s="38"/>
+      <c r="AG56" s="38"/>
+      <c r="AH56" s="38"/>
+      <c r="AI56" s="38"/>
+      <c r="AJ56" s="38"/>
+      <c r="AK56" s="38"/>
+      <c r="AL56" s="38"/>
+      <c r="AM56" s="38"/>
+      <c r="AN56" s="38"/>
+      <c r="AO56" s="38"/>
+      <c r="AP56" s="38"/>
+      <c r="AQ56" s="38"/>
+      <c r="AR56" s="38"/>
+      <c r="AS56" s="38"/>
+      <c r="AT56" s="38"/>
+      <c r="AU56" s="38"/>
+      <c r="AV56" s="38"/>
+      <c r="AW56" s="38"/>
+      <c r="AX56" s="38"/>
+      <c r="AY56" s="38"/>
+      <c r="AZ56" s="38"/>
+      <c r="BA56" s="38"/>
+      <c r="BB56" s="38"/>
+      <c r="BC56" s="38"/>
+      <c r="BD56" s="38"/>
+      <c r="BE56" s="38"/>
+      <c r="BF56" s="38"/>
+      <c r="BG56" s="38"/>
+      <c r="BH56" s="38"/>
+      <c r="BI56" s="38"/>
+      <c r="BJ56" s="38"/>
+      <c r="BK56" s="38"/>
+      <c r="BL56" s="38"/>
+      <c r="BM56" s="38"/>
     </row>
-    <row r="57" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15"/>
-      <c r="B57" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" s="53"/>
-      <c r="D57" s="34"/>
+      <c r="B57" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="54"/>
+      <c r="D57" s="34" t="s">
+        <v>16</v>
+      </c>
       <c r="E57" s="34"/>
       <c r="F57" s="31"/>
       <c r="G57" s="32">
-        <v>43829</v>
+        <v>43884</v>
       </c>
       <c r="H57" s="33">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I57" s="26"/>
       <c r="J57" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ref="J57:S63" ca="1" si="36">IF(AND($D57="Goal",J$5&gt;=$G57,J$5&lt;=$G57+$H57-1),2,IF(AND($D57="Milestone",J$5&gt;=$G57,J$5&lt;=$G57+$H57-1),1,""))</f>
         <v/>
       </c>
       <c r="K57" s="38" t="str">
@@ -14482,7 +14333,7 @@
         <v/>
       </c>
       <c r="T57" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ref="T57:AC63" ca="1" si="37">IF(AND($D57="Goal",T$5&gt;=$G57,T$5&lt;=$G57+$H57-1),2,IF(AND($D57="Milestone",T$5&gt;=$G57,T$5&lt;=$G57+$H57-1),1,""))</f>
         <v/>
       </c>
       <c r="U57" s="38" t="str">
@@ -14522,7 +14373,7 @@
         <v/>
       </c>
       <c r="AD57" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ref="AD57:AM63" ca="1" si="38">IF(AND($D57="Goal",AD$5&gt;=$G57,AD$5&lt;=$G57+$H57-1),2,IF(AND($D57="Milestone",AD$5&gt;=$G57,AD$5&lt;=$G57+$H57-1),1,""))</f>
         <v/>
       </c>
       <c r="AE57" s="38" t="str">
@@ -14562,7 +14413,7 @@
         <v/>
       </c>
       <c r="AN57" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ref="AN57:AW63" ca="1" si="39">IF(AND($D57="Goal",AN$5&gt;=$G57,AN$5&lt;=$G57+$H57-1),2,IF(AND($D57="Milestone",AN$5&gt;=$G57,AN$5&lt;=$G57+$H57-1),1,""))</f>
         <v/>
       </c>
       <c r="AO57" s="38" t="str">
@@ -14602,7 +14453,7 @@
         <v/>
       </c>
       <c r="AX57" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ref="AX57:BG63" ca="1" si="40">IF(AND($D57="Goal",AX$5&gt;=$G57,AX$5&lt;=$G57+$H57-1),2,IF(AND($D57="Milestone",AX$5&gt;=$G57,AX$5&lt;=$G57+$H57-1),1,""))</f>
         <v/>
       </c>
       <c r="AY57" s="38" t="str">
@@ -14642,7 +14493,7 @@
         <v/>
       </c>
       <c r="BH57" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ref="BH57:BM63" ca="1" si="41">IF(AND($D57="Goal",BH$5&gt;=$G57,BH$5&lt;=$G57+$H57-1),2,IF(AND($D57="Milestone",BH$5&gt;=$G57,BH$5&lt;=$G57+$H57-1),1,""))</f>
         <v/>
       </c>
       <c r="BI57" s="38" t="str">
@@ -14669,14 +14520,14 @@
     <row r="58" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C58" s="53"/>
       <c r="D58" s="34"/>
       <c r="E58" s="34"/>
       <c r="F58" s="31"/>
       <c r="G58" s="32">
-        <v>43843</v>
+        <v>43829</v>
       </c>
       <c r="H58" s="33">
         <v>14</v>
@@ -14910,14 +14761,14 @@
     <row r="59" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C59" s="53"/>
       <c r="D59" s="34"/>
       <c r="E59" s="34"/>
       <c r="F59" s="31"/>
       <c r="G59" s="32">
-        <v>43857</v>
+        <v>43843</v>
       </c>
       <c r="H59" s="33">
         <v>14</v>
@@ -15151,14 +15002,14 @@
     <row r="60" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="53" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C60" s="53"/>
       <c r="D60" s="34"/>
       <c r="E60" s="34"/>
       <c r="F60" s="31"/>
       <c r="G60" s="32">
-        <v>43871</v>
+        <v>43857</v>
       </c>
       <c r="H60" s="33">
         <v>14</v>
@@ -15390,23 +15241,19 @@
       </c>
     </row>
     <row r="61" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
-      <c r="B61" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="34">
-        <v>12</v>
-      </c>
+      <c r="A61" s="15"/>
+      <c r="B61" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="53"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
       <c r="F61" s="31"/>
-      <c r="G61" s="32"/>
+      <c r="G61" s="32">
+        <v>43871</v>
+      </c>
       <c r="H61" s="33">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I61" s="26"/>
       <c r="J61" s="38" t="str">
@@ -15637,7 +15484,7 @@
     <row r="62" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
       <c r="B62" s="41" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C62" s="41" t="s">
         <v>67</v>
@@ -15651,7 +15498,7 @@
       <c r="F62" s="31"/>
       <c r="G62" s="32"/>
       <c r="H62" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I62" s="26"/>
       <c r="J62" s="38" t="str">
@@ -15881,85 +15728,253 @@
     </row>
     <row r="63" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
-      <c r="B63" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" s="55" t="s">
+      <c r="B63" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="41" t="s">
         <v>67</v>
       </c>
       <c r="D63" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E63" s="34">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F63" s="31"/>
       <c r="G63" s="32"/>
       <c r="H63" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I63" s="26"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="38"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="38"/>
-      <c r="O63" s="38"/>
-      <c r="P63" s="38"/>
-      <c r="Q63" s="38"/>
-      <c r="R63" s="38"/>
-      <c r="S63" s="38"/>
-      <c r="T63" s="38"/>
-      <c r="U63" s="38"/>
-      <c r="V63" s="38"/>
-      <c r="W63" s="38"/>
-      <c r="X63" s="38"/>
-      <c r="Y63" s="38"/>
-      <c r="Z63" s="38"/>
-      <c r="AA63" s="38"/>
-      <c r="AB63" s="38"/>
-      <c r="AC63" s="38"/>
-      <c r="AD63" s="38"/>
-      <c r="AE63" s="38"/>
-      <c r="AF63" s="38"/>
-      <c r="AG63" s="38"/>
-      <c r="AH63" s="38"/>
-      <c r="AI63" s="38"/>
-      <c r="AJ63" s="38"/>
-      <c r="AK63" s="38"/>
-      <c r="AL63" s="38"/>
-      <c r="AM63" s="38"/>
-      <c r="AN63" s="38"/>
-      <c r="AO63" s="38"/>
-      <c r="AP63" s="38"/>
-      <c r="AQ63" s="38"/>
-      <c r="AR63" s="38"/>
-      <c r="AS63" s="38"/>
-      <c r="AT63" s="38"/>
-      <c r="AU63" s="38"/>
-      <c r="AV63" s="38"/>
-      <c r="AW63" s="38"/>
-      <c r="AX63" s="38"/>
-      <c r="AY63" s="38"/>
-      <c r="AZ63" s="38"/>
-      <c r="BA63" s="38"/>
-      <c r="BB63" s="38"/>
-      <c r="BC63" s="38"/>
-      <c r="BD63" s="38"/>
-      <c r="BE63" s="38"/>
-      <c r="BF63" s="38"/>
-      <c r="BG63" s="38"/>
-      <c r="BH63" s="38"/>
-      <c r="BI63" s="38"/>
-      <c r="BJ63" s="38"/>
-      <c r="BK63" s="38"/>
-      <c r="BL63" s="38"/>
-      <c r="BM63" s="38"/>
+      <c r="J63" s="38" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v/>
+      </c>
+      <c r="K63" s="38" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v/>
+      </c>
+      <c r="L63" s="38" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v/>
+      </c>
+      <c r="M63" s="38" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v/>
+      </c>
+      <c r="N63" s="38" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v/>
+      </c>
+      <c r="O63" s="38" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v/>
+      </c>
+      <c r="P63" s="38" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v/>
+      </c>
+      <c r="Q63" s="38" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v/>
+      </c>
+      <c r="R63" s="38" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v/>
+      </c>
+      <c r="S63" s="38" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v/>
+      </c>
+      <c r="T63" s="38" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v/>
+      </c>
+      <c r="U63" s="38" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v/>
+      </c>
+      <c r="V63" s="38" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v/>
+      </c>
+      <c r="W63" s="38" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v/>
+      </c>
+      <c r="X63" s="38" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v/>
+      </c>
+      <c r="Y63" s="38" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v/>
+      </c>
+      <c r="Z63" s="38" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v/>
+      </c>
+      <c r="AA63" s="38" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v/>
+      </c>
+      <c r="AB63" s="38" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v/>
+      </c>
+      <c r="AC63" s="38" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v/>
+      </c>
+      <c r="AD63" s="38" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="AE63" s="38" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="AF63" s="38" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="AG63" s="38" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="AH63" s="38" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="AI63" s="38" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="AJ63" s="38" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="AK63" s="38" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="AL63" s="38" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="AM63" s="38" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="AN63" s="38" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v/>
+      </c>
+      <c r="AO63" s="38" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v/>
+      </c>
+      <c r="AP63" s="38" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v/>
+      </c>
+      <c r="AQ63" s="38" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v/>
+      </c>
+      <c r="AR63" s="38" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v/>
+      </c>
+      <c r="AS63" s="38" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v/>
+      </c>
+      <c r="AT63" s="38" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v/>
+      </c>
+      <c r="AU63" s="38" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v/>
+      </c>
+      <c r="AV63" s="38" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v/>
+      </c>
+      <c r="AW63" s="38" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v/>
+      </c>
+      <c r="AX63" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="AY63" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="AZ63" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="BA63" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="BB63" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="BC63" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="BD63" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="BE63" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="BF63" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="BG63" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="BH63" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="BI63" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="BJ63" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="BK63" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="BL63" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="BM63" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
     </row>
     <row r="64" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
       <c r="B64" s="55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64" s="55" t="s">
         <v>67</v>
@@ -16036,7 +16051,7 @@
     <row r="65" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
       <c r="B65" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65" s="55" t="s">
         <v>67</v>
@@ -16112,253 +16127,85 @@
     </row>
     <row r="66" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14"/>
-      <c r="B66" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C66" s="41" t="s">
+      <c r="B66" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="55" t="s">
         <v>67</v>
       </c>
       <c r="D66" s="34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E66" s="34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F66" s="31"/>
       <c r="G66" s="32"/>
       <c r="H66" s="33">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="I66" s="26"/>
-      <c r="J66" s="38" t="str">
-        <f t="shared" ref="J66:S73" ca="1" si="42">IF(AND($D66="Goal",J$5&gt;=$G66,J$5&lt;=$G66+$H66-1),2,IF(AND($D66="Milestone",J$5&gt;=$G66,J$5&lt;=$G66+$H66-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K66" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="L66" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="M66" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="N66" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="O66" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="P66" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="Q66" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="R66" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="S66" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="T66" s="38" t="str">
-        <f t="shared" ref="T66:AC73" ca="1" si="43">IF(AND($D66="Goal",T$5&gt;=$G66,T$5&lt;=$G66+$H66-1),2,IF(AND($D66="Milestone",T$5&gt;=$G66,T$5&lt;=$G66+$H66-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="U66" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v/>
-      </c>
-      <c r="V66" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v/>
-      </c>
-      <c r="W66" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v/>
-      </c>
-      <c r="X66" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v/>
-      </c>
-      <c r="Y66" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v/>
-      </c>
-      <c r="Z66" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v/>
-      </c>
-      <c r="AA66" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v/>
-      </c>
-      <c r="AB66" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v/>
-      </c>
-      <c r="AC66" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v/>
-      </c>
-      <c r="AD66" s="38" t="str">
-        <f t="shared" ref="AD66:AM73" ca="1" si="44">IF(AND($D66="Goal",AD$5&gt;=$G66,AD$5&lt;=$G66+$H66-1),2,IF(AND($D66="Milestone",AD$5&gt;=$G66,AD$5&lt;=$G66+$H66-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AE66" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v/>
-      </c>
-      <c r="AF66" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v/>
-      </c>
-      <c r="AG66" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v/>
-      </c>
-      <c r="AH66" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v/>
-      </c>
-      <c r="AI66" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v/>
-      </c>
-      <c r="AJ66" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v/>
-      </c>
-      <c r="AK66" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v/>
-      </c>
-      <c r="AL66" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v/>
-      </c>
-      <c r="AM66" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v/>
-      </c>
-      <c r="AN66" s="38" t="str">
-        <f t="shared" ref="AN66:AW73" ca="1" si="45">IF(AND($D66="Goal",AN$5&gt;=$G66,AN$5&lt;=$G66+$H66-1),2,IF(AND($D66="Milestone",AN$5&gt;=$G66,AN$5&lt;=$G66+$H66-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AO66" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v/>
-      </c>
-      <c r="AP66" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v/>
-      </c>
-      <c r="AQ66" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v/>
-      </c>
-      <c r="AR66" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v/>
-      </c>
-      <c r="AS66" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v/>
-      </c>
-      <c r="AT66" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v/>
-      </c>
-      <c r="AU66" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v/>
-      </c>
-      <c r="AV66" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v/>
-      </c>
-      <c r="AW66" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v/>
-      </c>
-      <c r="AX66" s="38" t="str">
-        <f t="shared" ref="AX66:BG73" ca="1" si="46">IF(AND($D66="Goal",AX$5&gt;=$G66,AX$5&lt;=$G66+$H66-1),2,IF(AND($D66="Milestone",AX$5&gt;=$G66,AX$5&lt;=$G66+$H66-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AY66" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v/>
-      </c>
-      <c r="AZ66" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v/>
-      </c>
-      <c r="BA66" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v/>
-      </c>
-      <c r="BB66" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v/>
-      </c>
-      <c r="BC66" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v/>
-      </c>
-      <c r="BD66" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v/>
-      </c>
-      <c r="BE66" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v/>
-      </c>
-      <c r="BF66" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v/>
-      </c>
-      <c r="BG66" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v/>
-      </c>
-      <c r="BH66" s="38" t="str">
-        <f t="shared" ref="BH66:BM73" ca="1" si="47">IF(AND($D66="Goal",BH$5&gt;=$G66,BH$5&lt;=$G66+$H66-1),2,IF(AND($D66="Milestone",BH$5&gt;=$G66,BH$5&lt;=$G66+$H66-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BI66" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v/>
-      </c>
-      <c r="BJ66" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v/>
-      </c>
-      <c r="BK66" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v/>
-      </c>
-      <c r="BL66" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v/>
-      </c>
-      <c r="BM66" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v/>
-      </c>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="38"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
+      <c r="Q66" s="38"/>
+      <c r="R66" s="38"/>
+      <c r="S66" s="38"/>
+      <c r="T66" s="38"/>
+      <c r="U66" s="38"/>
+      <c r="V66" s="38"/>
+      <c r="W66" s="38"/>
+      <c r="X66" s="38"/>
+      <c r="Y66" s="38"/>
+      <c r="Z66" s="38"/>
+      <c r="AA66" s="38"/>
+      <c r="AB66" s="38"/>
+      <c r="AC66" s="38"/>
+      <c r="AD66" s="38"/>
+      <c r="AE66" s="38"/>
+      <c r="AF66" s="38"/>
+      <c r="AG66" s="38"/>
+      <c r="AH66" s="38"/>
+      <c r="AI66" s="38"/>
+      <c r="AJ66" s="38"/>
+      <c r="AK66" s="38"/>
+      <c r="AL66" s="38"/>
+      <c r="AM66" s="38"/>
+      <c r="AN66" s="38"/>
+      <c r="AO66" s="38"/>
+      <c r="AP66" s="38"/>
+      <c r="AQ66" s="38"/>
+      <c r="AR66" s="38"/>
+      <c r="AS66" s="38"/>
+      <c r="AT66" s="38"/>
+      <c r="AU66" s="38"/>
+      <c r="AV66" s="38"/>
+      <c r="AW66" s="38"/>
+      <c r="AX66" s="38"/>
+      <c r="AY66" s="38"/>
+      <c r="AZ66" s="38"/>
+      <c r="BA66" s="38"/>
+      <c r="BB66" s="38"/>
+      <c r="BC66" s="38"/>
+      <c r="BD66" s="38"/>
+      <c r="BE66" s="38"/>
+      <c r="BF66" s="38"/>
+      <c r="BG66" s="38"/>
+      <c r="BH66" s="38"/>
+      <c r="BI66" s="38"/>
+      <c r="BJ66" s="38"/>
+      <c r="BK66" s="38"/>
+      <c r="BL66" s="38"/>
+      <c r="BM66" s="38"/>
     </row>
     <row r="67" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
       <c r="B67" s="41" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C67" s="41" t="s">
         <v>67</v>
@@ -16372,11 +16219,11 @@
       <c r="F67" s="31"/>
       <c r="G67" s="32"/>
       <c r="H67" s="33">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I67" s="26"/>
       <c r="J67" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ref="J67:S74" ca="1" si="42">IF(AND($D67="Goal",J$5&gt;=$G67,J$5&lt;=$G67+$H67-1),2,IF(AND($D67="Milestone",J$5&gt;=$G67,J$5&lt;=$G67+$H67-1),1,""))</f>
         <v/>
       </c>
       <c r="K67" s="38" t="str">
@@ -16416,7 +16263,7 @@
         <v/>
       </c>
       <c r="T67" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ref="T67:AC74" ca="1" si="43">IF(AND($D67="Goal",T$5&gt;=$G67,T$5&lt;=$G67+$H67-1),2,IF(AND($D67="Milestone",T$5&gt;=$G67,T$5&lt;=$G67+$H67-1),1,""))</f>
         <v/>
       </c>
       <c r="U67" s="38" t="str">
@@ -16456,7 +16303,7 @@
         <v/>
       </c>
       <c r="AD67" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ref="AD67:AM74" ca="1" si="44">IF(AND($D67="Goal",AD$5&gt;=$G67,AD$5&lt;=$G67+$H67-1),2,IF(AND($D67="Milestone",AD$5&gt;=$G67,AD$5&lt;=$G67+$H67-1),1,""))</f>
         <v/>
       </c>
       <c r="AE67" s="38" t="str">
@@ -16496,7 +16343,7 @@
         <v/>
       </c>
       <c r="AN67" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ref="AN67:AW74" ca="1" si="45">IF(AND($D67="Goal",AN$5&gt;=$G67,AN$5&lt;=$G67+$H67-1),2,IF(AND($D67="Milestone",AN$5&gt;=$G67,AN$5&lt;=$G67+$H67-1),1,""))</f>
         <v/>
       </c>
       <c r="AO67" s="38" t="str">
@@ -16536,7 +16383,7 @@
         <v/>
       </c>
       <c r="AX67" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ref="AX67:BG74" ca="1" si="46">IF(AND($D67="Goal",AX$5&gt;=$G67,AX$5&lt;=$G67+$H67-1),2,IF(AND($D67="Milestone",AX$5&gt;=$G67,AX$5&lt;=$G67+$H67-1),1,""))</f>
         <v/>
       </c>
       <c r="AY67" s="38" t="str">
@@ -16576,7 +16423,7 @@
         <v/>
       </c>
       <c r="BH67" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ref="BH67:BM74" ca="1" si="47">IF(AND($D67="Goal",BH$5&gt;=$G67,BH$5&lt;=$G67+$H67-1),2,IF(AND($D67="Milestone",BH$5&gt;=$G67,BH$5&lt;=$G67+$H67-1),1,""))</f>
         <v/>
       </c>
       <c r="BI67" s="38" t="str">
@@ -16603,7 +16450,7 @@
     <row r="68" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
       <c r="B68" s="41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C68" s="41" t="s">
         <v>67</v>
@@ -16612,7 +16459,7 @@
         <v>17</v>
       </c>
       <c r="E68" s="34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F68" s="31"/>
       <c r="G68" s="32"/>
@@ -16848,13 +16695,13 @@
     <row r="69" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
       <c r="B69" s="41" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C69" s="41" t="s">
         <v>67</v>
       </c>
       <c r="D69" s="34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E69" s="34">
         <v>6</v>
@@ -17093,7 +16940,7 @@
     <row r="70" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
       <c r="B70" s="41" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C70" s="41" t="s">
         <v>67</v>
@@ -17338,16 +17185,16 @@
     <row r="71" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
       <c r="B71" s="41" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C71" s="41" t="s">
         <v>67</v>
       </c>
       <c r="D71" s="34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E71" s="34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F71" s="31"/>
       <c r="G71" s="32"/>
@@ -17583,7 +17430,7 @@
     <row r="72" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
       <c r="B72" s="41" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C72" s="41" t="s">
         <v>67</v>
@@ -17592,7 +17439,7 @@
         <v>17</v>
       </c>
       <c r="E72" s="34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="32"/>
@@ -17828,7 +17675,7 @@
     <row r="73" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
       <c r="B73" s="41" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C73" s="41" t="s">
         <v>67</v>
@@ -17837,12 +17684,12 @@
         <v>17</v>
       </c>
       <c r="E73" s="34">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F73" s="31"/>
       <c r="G73" s="32"/>
       <c r="H73" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I73" s="26"/>
       <c r="J73" s="38" t="str">
@@ -18072,325 +17919,335 @@
     </row>
     <row r="74" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
-      <c r="B74" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" s="55"/>
-      <c r="D74" s="34"/>
+      <c r="B74" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" s="34" t="s">
+        <v>17</v>
+      </c>
       <c r="E74" s="34">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F74" s="31"/>
       <c r="G74" s="32"/>
-      <c r="H74" s="33"/>
+      <c r="H74" s="33">
+        <v>3</v>
+      </c>
       <c r="I74" s="26"/>
-      <c r="J74" s="38"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="38"/>
-      <c r="M74" s="38"/>
-      <c r="N74" s="38"/>
-      <c r="O74" s="38"/>
-      <c r="P74" s="38"/>
-      <c r="Q74" s="38"/>
-      <c r="R74" s="38"/>
-      <c r="S74" s="38"/>
-      <c r="T74" s="38"/>
-      <c r="U74" s="38"/>
-      <c r="V74" s="38"/>
-      <c r="W74" s="38"/>
-      <c r="X74" s="38"/>
-      <c r="Y74" s="38"/>
-      <c r="Z74" s="38"/>
-      <c r="AA74" s="38"/>
-      <c r="AB74" s="38"/>
-      <c r="AC74" s="38"/>
-      <c r="AD74" s="38"/>
-      <c r="AE74" s="38"/>
-      <c r="AF74" s="38"/>
-      <c r="AG74" s="38"/>
-      <c r="AH74" s="38"/>
-      <c r="AI74" s="38"/>
-      <c r="AJ74" s="38"/>
-      <c r="AK74" s="38"/>
-      <c r="AL74" s="38"/>
-      <c r="AM74" s="38"/>
-      <c r="AN74" s="38"/>
-      <c r="AO74" s="38"/>
-      <c r="AP74" s="38"/>
-      <c r="AQ74" s="38"/>
-      <c r="AR74" s="38"/>
-      <c r="AS74" s="38"/>
-      <c r="AT74" s="38"/>
-      <c r="AU74" s="38"/>
-      <c r="AV74" s="38"/>
-      <c r="AW74" s="38"/>
-      <c r="AX74" s="38"/>
-      <c r="AY74" s="38"/>
-      <c r="AZ74" s="38"/>
-      <c r="BA74" s="38"/>
-      <c r="BB74" s="38"/>
-      <c r="BC74" s="38"/>
-      <c r="BD74" s="38"/>
-      <c r="BE74" s="38"/>
-      <c r="BF74" s="38"/>
-      <c r="BG74" s="38"/>
-      <c r="BH74" s="38"/>
-      <c r="BI74" s="38"/>
-      <c r="BJ74" s="38"/>
-      <c r="BK74" s="38"/>
-      <c r="BL74" s="38"/>
-      <c r="BM74" s="38"/>
+      <c r="J74" s="38" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="K74" s="38" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="L74" s="38" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="M74" s="38" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="N74" s="38" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="O74" s="38" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="P74" s="38" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="Q74" s="38" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="R74" s="38" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="S74" s="38" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="T74" s="38" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v/>
+      </c>
+      <c r="U74" s="38" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v/>
+      </c>
+      <c r="V74" s="38" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v/>
+      </c>
+      <c r="W74" s="38" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v/>
+      </c>
+      <c r="X74" s="38" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v/>
+      </c>
+      <c r="Y74" s="38" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v/>
+      </c>
+      <c r="Z74" s="38" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v/>
+      </c>
+      <c r="AA74" s="38" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v/>
+      </c>
+      <c r="AB74" s="38" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v/>
+      </c>
+      <c r="AC74" s="38" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v/>
+      </c>
+      <c r="AD74" s="38" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v/>
+      </c>
+      <c r="AE74" s="38" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v/>
+      </c>
+      <c r="AF74" s="38" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v/>
+      </c>
+      <c r="AG74" s="38" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v/>
+      </c>
+      <c r="AH74" s="38" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v/>
+      </c>
+      <c r="AI74" s="38" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v/>
+      </c>
+      <c r="AJ74" s="38" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v/>
+      </c>
+      <c r="AK74" s="38" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v/>
+      </c>
+      <c r="AL74" s="38" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v/>
+      </c>
+      <c r="AM74" s="38" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v/>
+      </c>
+      <c r="AN74" s="38" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+      <c r="AO74" s="38" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+      <c r="AP74" s="38" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+      <c r="AQ74" s="38" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+      <c r="AR74" s="38" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+      <c r="AS74" s="38" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+      <c r="AT74" s="38" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+      <c r="AU74" s="38" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+      <c r="AV74" s="38" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+      <c r="AW74" s="38" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+      <c r="AX74" s="38" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="AY74" s="38" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ74" s="38" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="BA74" s="38" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="BB74" s="38" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="BC74" s="38" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="BD74" s="38" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="BE74" s="38" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="BF74" s="38" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="BG74" s="38" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="BH74" s="38" t="str">
+        <f t="shared" ca="1" si="47"/>
+        <v/>
+      </c>
+      <c r="BI74" s="38" t="str">
+        <f t="shared" ca="1" si="47"/>
+        <v/>
+      </c>
+      <c r="BJ74" s="38" t="str">
+        <f t="shared" ca="1" si="47"/>
+        <v/>
+      </c>
+      <c r="BK74" s="38" t="str">
+        <f t="shared" ca="1" si="47"/>
+        <v/>
+      </c>
+      <c r="BL74" s="38" t="str">
+        <f t="shared" ca="1" si="47"/>
+        <v/>
+      </c>
+      <c r="BM74" s="38" t="str">
+        <f t="shared" ca="1" si="47"/>
+        <v/>
+      </c>
     </row>
     <row r="75" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="41"/>
+      <c r="B75" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" s="55"/>
       <c r="D75" s="34"/>
       <c r="E75" s="34">
-        <f>SUBTOTAL(109,E61:E74)</f>
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="F75" s="31"/>
       <c r="G75" s="32"/>
       <c r="H75" s="33"/>
       <c r="I75" s="26"/>
-      <c r="J75" s="38" t="str">
-        <f t="shared" ref="J75:S83" ca="1" si="48">IF(AND($D75="Goal",J$5&gt;=$G75,J$5&lt;=$G75+$H75-1),2,IF(AND($D75="Milestone",J$5&gt;=$G75,J$5&lt;=$G75+$H75-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K75" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v/>
-      </c>
-      <c r="L75" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v/>
-      </c>
-      <c r="M75" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v/>
-      </c>
-      <c r="N75" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v/>
-      </c>
-      <c r="O75" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v/>
-      </c>
-      <c r="P75" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v/>
-      </c>
-      <c r="Q75" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v/>
-      </c>
-      <c r="R75" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v/>
-      </c>
-      <c r="S75" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v/>
-      </c>
-      <c r="T75" s="38" t="str">
-        <f t="shared" ref="T75:AC83" ca="1" si="49">IF(AND($D75="Goal",T$5&gt;=$G75,T$5&lt;=$G75+$H75-1),2,IF(AND($D75="Milestone",T$5&gt;=$G75,T$5&lt;=$G75+$H75-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="U75" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="V75" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="W75" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="X75" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="Y75" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="Z75" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="AA75" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="AB75" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="AC75" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="AD75" s="38" t="str">
-        <f t="shared" ref="AD75:AM83" ca="1" si="50">IF(AND($D75="Goal",AD$5&gt;=$G75,AD$5&lt;=$G75+$H75-1),2,IF(AND($D75="Milestone",AD$5&gt;=$G75,AD$5&lt;=$G75+$H75-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AE75" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AF75" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AG75" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AH75" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AI75" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ75" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AK75" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AL75" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AM75" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AN75" s="38" t="str">
-        <f t="shared" ref="AN75:AW83" ca="1" si="51">IF(AND($D75="Goal",AN$5&gt;=$G75,AN$5&lt;=$G75+$H75-1),2,IF(AND($D75="Milestone",AN$5&gt;=$G75,AN$5&lt;=$G75+$H75-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AO75" s="38" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="AP75" s="38" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="AQ75" s="38" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="AR75" s="38" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="AS75" s="38" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="AT75" s="38" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="AU75" s="38" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="AV75" s="38" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="AW75" s="38" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="AX75" s="38" t="str">
-        <f t="shared" ref="AX75:BG83" ca="1" si="52">IF(AND($D75="Goal",AX$5&gt;=$G75,AX$5&lt;=$G75+$H75-1),2,IF(AND($D75="Milestone",AX$5&gt;=$G75,AX$5&lt;=$G75+$H75-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AY75" s="38" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AZ75" s="38" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="BA75" s="38" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="BB75" s="38" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="BC75" s="38" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="BD75" s="38" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="BE75" s="38" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="BF75" s="38" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="BG75" s="38" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="BH75" s="38" t="str">
-        <f t="shared" ref="BH75:BM83" ca="1" si="53">IF(AND($D75="Goal",BH$5&gt;=$G75,BH$5&lt;=$G75+$H75-1),2,IF(AND($D75="Milestone",BH$5&gt;=$G75,BH$5&lt;=$G75+$H75-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BI75" s="38" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="BJ75" s="38" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="BK75" s="38" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="BL75" s="38" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="BM75" s="38" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="38"/>
+      <c r="M75" s="38"/>
+      <c r="N75" s="38"/>
+      <c r="O75" s="38"/>
+      <c r="P75" s="38"/>
+      <c r="Q75" s="38"/>
+      <c r="R75" s="38"/>
+      <c r="S75" s="38"/>
+      <c r="T75" s="38"/>
+      <c r="U75" s="38"/>
+      <c r="V75" s="38"/>
+      <c r="W75" s="38"/>
+      <c r="X75" s="38"/>
+      <c r="Y75" s="38"/>
+      <c r="Z75" s="38"/>
+      <c r="AA75" s="38"/>
+      <c r="AB75" s="38"/>
+      <c r="AC75" s="38"/>
+      <c r="AD75" s="38"/>
+      <c r="AE75" s="38"/>
+      <c r="AF75" s="38"/>
+      <c r="AG75" s="38"/>
+      <c r="AH75" s="38"/>
+      <c r="AI75" s="38"/>
+      <c r="AJ75" s="38"/>
+      <c r="AK75" s="38"/>
+      <c r="AL75" s="38"/>
+      <c r="AM75" s="38"/>
+      <c r="AN75" s="38"/>
+      <c r="AO75" s="38"/>
+      <c r="AP75" s="38"/>
+      <c r="AQ75" s="38"/>
+      <c r="AR75" s="38"/>
+      <c r="AS75" s="38"/>
+      <c r="AT75" s="38"/>
+      <c r="AU75" s="38"/>
+      <c r="AV75" s="38"/>
+      <c r="AW75" s="38"/>
+      <c r="AX75" s="38"/>
+      <c r="AY75" s="38"/>
+      <c r="AZ75" s="38"/>
+      <c r="BA75" s="38"/>
+      <c r="BB75" s="38"/>
+      <c r="BC75" s="38"/>
+      <c r="BD75" s="38"/>
+      <c r="BE75" s="38"/>
+      <c r="BF75" s="38"/>
+      <c r="BG75" s="38"/>
+      <c r="BH75" s="38"/>
+      <c r="BI75" s="38"/>
+      <c r="BJ75" s="38"/>
+      <c r="BK75" s="38"/>
+      <c r="BL75" s="38"/>
+      <c r="BM75" s="38"/>
     </row>
     <row r="76" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14"/>
       <c r="B76" s="41"/>
       <c r="C76" s="41"/>
       <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
+      <c r="E76" s="34">
+        <f>SUBTOTAL(109,E62:E75)</f>
+        <v>130</v>
+      </c>
       <c r="F76" s="31"/>
       <c r="G76" s="32"/>
       <c r="H76" s="33"/>
       <c r="I76" s="26"/>
       <c r="J76" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ref="J76:S84" ca="1" si="48">IF(AND($D76="Goal",J$5&gt;=$G76,J$5&lt;=$G76+$H76-1),2,IF(AND($D76="Milestone",J$5&gt;=$G76,J$5&lt;=$G76+$H76-1),1,""))</f>
         <v/>
       </c>
       <c r="K76" s="38" t="str">
@@ -18430,7 +18287,7 @@
         <v/>
       </c>
       <c r="T76" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ref="T76:AC84" ca="1" si="49">IF(AND($D76="Goal",T$5&gt;=$G76,T$5&lt;=$G76+$H76-1),2,IF(AND($D76="Milestone",T$5&gt;=$G76,T$5&lt;=$G76+$H76-1),1,""))</f>
         <v/>
       </c>
       <c r="U76" s="38" t="str">
@@ -18470,7 +18327,7 @@
         <v/>
       </c>
       <c r="AD76" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ref="AD76:AM84" ca="1" si="50">IF(AND($D76="Goal",AD$5&gt;=$G76,AD$5&lt;=$G76+$H76-1),2,IF(AND($D76="Milestone",AD$5&gt;=$G76,AD$5&lt;=$G76+$H76-1),1,""))</f>
         <v/>
       </c>
       <c r="AE76" s="38" t="str">
@@ -18510,7 +18367,7 @@
         <v/>
       </c>
       <c r="AN76" s="38" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ref="AN76:AW84" ca="1" si="51">IF(AND($D76="Goal",AN$5&gt;=$G76,AN$5&lt;=$G76+$H76-1),2,IF(AND($D76="Milestone",AN$5&gt;=$G76,AN$5&lt;=$G76+$H76-1),1,""))</f>
         <v/>
       </c>
       <c r="AO76" s="38" t="str">
@@ -18550,7 +18407,7 @@
         <v/>
       </c>
       <c r="AX76" s="38" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ref="AX76:BG84" ca="1" si="52">IF(AND($D76="Goal",AX$5&gt;=$G76,AX$5&lt;=$G76+$H76-1),2,IF(AND($D76="Milestone",AX$5&gt;=$G76,AX$5&lt;=$G76+$H76-1),1,""))</f>
         <v/>
       </c>
       <c r="AY76" s="38" t="str">
@@ -18590,7 +18447,7 @@
         <v/>
       </c>
       <c r="BH76" s="38" t="str">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ref="BH76:BM84" ca="1" si="53">IF(AND($D76="Goal",BH$5&gt;=$G76,BH$5&lt;=$G76+$H76-1),2,IF(AND($D76="Milestone",BH$5&gt;=$G76,BH$5&lt;=$G76+$H76-1),1,""))</f>
         <v/>
       </c>
       <c r="BI76" s="38" t="str">
@@ -18614,23 +18471,15 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="15"/>
-      <c r="B77" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="C77" s="54"/>
-      <c r="D77" s="34" t="s">
-        <v>16</v>
-      </c>
+    <row r="77" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="14"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="34"/>
       <c r="E77" s="34"/>
       <c r="F77" s="31"/>
-      <c r="G77" s="32">
-        <v>43941</v>
-      </c>
-      <c r="H77" s="33">
-        <v>1</v>
-      </c>
+      <c r="G77" s="32"/>
+      <c r="H77" s="33"/>
       <c r="I77" s="26"/>
       <c r="J77" s="38" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -18857,20 +18706,22 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15"/>
-      <c r="B78" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="C78" s="53"/>
-      <c r="D78" s="34"/>
+      <c r="B78" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="54"/>
+      <c r="D78" s="34" t="s">
+        <v>16</v>
+      </c>
       <c r="E78" s="34"/>
       <c r="F78" s="31"/>
       <c r="G78" s="32">
-        <v>43885</v>
+        <v>43941</v>
       </c>
       <c r="H78" s="33">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I78" s="26"/>
       <c r="J78" s="38" t="str">
@@ -19101,14 +18952,14 @@
     <row r="79" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
       <c r="B79" s="53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C79" s="53"/>
       <c r="D79" s="34"/>
       <c r="E79" s="34"/>
       <c r="F79" s="31"/>
       <c r="G79" s="32">
-        <v>43899</v>
+        <v>43885</v>
       </c>
       <c r="H79" s="33">
         <v>14</v>
@@ -19342,14 +19193,14 @@
     <row r="80" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
       <c r="B80" s="53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C80" s="53"/>
       <c r="D80" s="34"/>
       <c r="E80" s="34"/>
       <c r="F80" s="31"/>
       <c r="G80" s="32">
-        <v>43913</v>
+        <v>43899</v>
       </c>
       <c r="H80" s="33">
         <v>14</v>
@@ -19583,14 +19434,14 @@
     <row r="81" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15"/>
       <c r="B81" s="53" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C81" s="53"/>
       <c r="D81" s="34"/>
       <c r="E81" s="34"/>
       <c r="F81" s="31"/>
       <c r="G81" s="32">
-        <v>43927</v>
+        <v>43913</v>
       </c>
       <c r="H81" s="33">
         <v>14</v>
@@ -19822,23 +19673,19 @@
       </c>
     </row>
     <row r="82" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C82" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D82" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" s="34">
-        <v>8</v>
-      </c>
+      <c r="A82" s="15"/>
+      <c r="B82" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" s="53"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
       <c r="F82" s="31"/>
-      <c r="G82" s="32"/>
+      <c r="G82" s="32">
+        <v>43927</v>
+      </c>
       <c r="H82" s="33">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I82" s="26"/>
       <c r="J82" s="38" t="str">
@@ -20069,16 +19916,16 @@
     <row r="83" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
       <c r="B83" s="41" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C83" s="41" t="s">
         <v>68</v>
       </c>
       <c r="D83" s="34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E83" s="34">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F83" s="31"/>
       <c r="G83" s="32"/>
@@ -20314,7 +20161,7 @@
     <row r="84" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
       <c r="B84" s="41" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C84" s="41" t="s">
         <v>68</v>
@@ -20323,7 +20170,7 @@
         <v>17</v>
       </c>
       <c r="E84" s="34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F84" s="31"/>
       <c r="G84" s="32"/>
@@ -20331,515 +20178,571 @@
         <v>2</v>
       </c>
       <c r="I84" s="26"/>
-      <c r="J84" s="38"/>
-      <c r="K84" s="38"/>
-      <c r="L84" s="38"/>
-      <c r="M84" s="38"/>
-      <c r="N84" s="38"/>
-      <c r="O84" s="38"/>
-      <c r="P84" s="38"/>
-      <c r="Q84" s="38"/>
-      <c r="R84" s="38"/>
-      <c r="S84" s="38"/>
-      <c r="T84" s="38"/>
-      <c r="U84" s="38"/>
-      <c r="V84" s="38"/>
-      <c r="W84" s="38"/>
-      <c r="X84" s="38"/>
-      <c r="Y84" s="38"/>
-      <c r="Z84" s="38"/>
-      <c r="AA84" s="38"/>
-      <c r="AB84" s="38"/>
-      <c r="AC84" s="38"/>
-      <c r="AD84" s="38"/>
-      <c r="AE84" s="38"/>
-      <c r="AF84" s="38"/>
-      <c r="AG84" s="38"/>
-      <c r="AH84" s="38"/>
-      <c r="AI84" s="38"/>
-      <c r="AJ84" s="38"/>
-      <c r="AK84" s="38"/>
-      <c r="AL84" s="38"/>
-      <c r="AM84" s="38"/>
-      <c r="AN84" s="38"/>
-      <c r="AO84" s="38"/>
-      <c r="AP84" s="38"/>
-      <c r="AQ84" s="38"/>
-      <c r="AR84" s="38"/>
-      <c r="AS84" s="38"/>
-      <c r="AT84" s="38"/>
-      <c r="AU84" s="38"/>
-      <c r="AV84" s="38"/>
-      <c r="AW84" s="38"/>
-      <c r="AX84" s="38"/>
-      <c r="AY84" s="38"/>
-      <c r="AZ84" s="38"/>
-      <c r="BA84" s="38"/>
-      <c r="BB84" s="38"/>
-      <c r="BC84" s="38"/>
-      <c r="BD84" s="38"/>
-      <c r="BE84" s="38"/>
-      <c r="BF84" s="38"/>
-      <c r="BG84" s="38"/>
-      <c r="BH84" s="38"/>
-      <c r="BI84" s="38"/>
-      <c r="BJ84" s="38"/>
-      <c r="BK84" s="38"/>
-      <c r="BL84" s="38"/>
-      <c r="BM84" s="38"/>
+      <c r="J84" s="38" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v/>
+      </c>
+      <c r="K84" s="38" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v/>
+      </c>
+      <c r="L84" s="38" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v/>
+      </c>
+      <c r="M84" s="38" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v/>
+      </c>
+      <c r="N84" s="38" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v/>
+      </c>
+      <c r="O84" s="38" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v/>
+      </c>
+      <c r="P84" s="38" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v/>
+      </c>
+      <c r="Q84" s="38" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v/>
+      </c>
+      <c r="R84" s="38" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v/>
+      </c>
+      <c r="S84" s="38" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v/>
+      </c>
+      <c r="T84" s="38" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="U84" s="38" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="V84" s="38" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="W84" s="38" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="X84" s="38" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="Y84" s="38" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="Z84" s="38" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AA84" s="38" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AB84" s="38" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AC84" s="38" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AD84" s="38" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AE84" s="38" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AF84" s="38" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AG84" s="38" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AH84" s="38" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AI84" s="38" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AJ84" s="38" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AK84" s="38" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AL84" s="38" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AM84" s="38" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AN84" s="38" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="AO84" s="38" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="AP84" s="38" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="AQ84" s="38" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="AR84" s="38" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="AS84" s="38" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="AT84" s="38" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="AU84" s="38" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="AV84" s="38" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="AW84" s="38" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="AX84" s="38" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AY84" s="38" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AZ84" s="38" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="BA84" s="38" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="BB84" s="38" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="BC84" s="38" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="BD84" s="38" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="BE84" s="38" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="BF84" s="38" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="BG84" s="38" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="BH84" s="38" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="BI84" s="38" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="BJ84" s="38" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="BK84" s="38" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="BL84" s="38" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="BM84" s="38" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
     </row>
     <row r="85" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="15"/>
+      <c r="A85" s="14"/>
       <c r="B85" s="41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C85" s="41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D85" s="34" t="s">
         <v>17</v>
       </c>
       <c r="E85" s="34">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F85" s="31"/>
       <c r="G85" s="32"/>
       <c r="H85" s="33">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I85" s="26"/>
-      <c r="J85" s="38" t="str">
-        <f t="shared" ref="J85:AO85" ca="1" si="54">IF(AND($D85="Goal",J$5&gt;=$G85,J$5&lt;=$G85+$H85-1),2,IF(AND($D85="Milestone",J$5&gt;=$G85,J$5&lt;=$G85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="L85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="M85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="N85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="O85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="P85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="Q85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="R85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="S85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="T85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="U85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="V85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="W85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="X85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="Y85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="Z85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AA85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AB85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AC85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AD85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AE85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AF85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AG85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AH85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AI85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AJ85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AK85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AL85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AM85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AN85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AO85" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AP85" s="38" t="str">
-        <f t="shared" ref="AP85:BM85" ca="1" si="55">IF(AND($D85="Goal",AP$5&gt;=$G85,AP$5&lt;=$G85+$H85-1),2,IF(AND($D85="Milestone",AP$5&gt;=$G85,AP$5&lt;=$G85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AQ85" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AR85" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AS85" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AT85" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AU85" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AV85" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AW85" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AX85" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AY85" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AZ85" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BA85" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BB85" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BC85" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BD85" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BE85" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BF85" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BG85" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BH85" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BI85" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BJ85" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BK85" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BL85" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BM85" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="38"/>
+      <c r="N85" s="38"/>
+      <c r="O85" s="38"/>
+      <c r="P85" s="38"/>
+      <c r="Q85" s="38"/>
+      <c r="R85" s="38"/>
+      <c r="S85" s="38"/>
+      <c r="T85" s="38"/>
+      <c r="U85" s="38"/>
+      <c r="V85" s="38"/>
+      <c r="W85" s="38"/>
+      <c r="X85" s="38"/>
+      <c r="Y85" s="38"/>
+      <c r="Z85" s="38"/>
+      <c r="AA85" s="38"/>
+      <c r="AB85" s="38"/>
+      <c r="AC85" s="38"/>
+      <c r="AD85" s="38"/>
+      <c r="AE85" s="38"/>
+      <c r="AF85" s="38"/>
+      <c r="AG85" s="38"/>
+      <c r="AH85" s="38"/>
+      <c r="AI85" s="38"/>
+      <c r="AJ85" s="38"/>
+      <c r="AK85" s="38"/>
+      <c r="AL85" s="38"/>
+      <c r="AM85" s="38"/>
+      <c r="AN85" s="38"/>
+      <c r="AO85" s="38"/>
+      <c r="AP85" s="38"/>
+      <c r="AQ85" s="38"/>
+      <c r="AR85" s="38"/>
+      <c r="AS85" s="38"/>
+      <c r="AT85" s="38"/>
+      <c r="AU85" s="38"/>
+      <c r="AV85" s="38"/>
+      <c r="AW85" s="38"/>
+      <c r="AX85" s="38"/>
+      <c r="AY85" s="38"/>
+      <c r="AZ85" s="38"/>
+      <c r="BA85" s="38"/>
+      <c r="BB85" s="38"/>
+      <c r="BC85" s="38"/>
+      <c r="BD85" s="38"/>
+      <c r="BE85" s="38"/>
+      <c r="BF85" s="38"/>
+      <c r="BG85" s="38"/>
+      <c r="BH85" s="38"/>
+      <c r="BI85" s="38"/>
+      <c r="BJ85" s="38"/>
+      <c r="BK85" s="38"/>
+      <c r="BL85" s="38"/>
+      <c r="BM85" s="38"/>
     </row>
     <row r="86" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
+      <c r="A86" s="15"/>
       <c r="B86" s="41" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C86" s="41" t="s">
         <v>67</v>
       </c>
       <c r="D86" s="34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E86" s="34">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F86" s="31"/>
       <c r="G86" s="32"/>
       <c r="H86" s="33">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I86" s="26"/>
-      <c r="J86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="K86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="L86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="M86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="N86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="O86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="P86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="R86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="S86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="T86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="U86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="V86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="W86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="X86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="BA86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="BB86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="BG86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="BH86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="BI86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="BL86" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="BM86" s="38" t="s">
-        <v>60</v>
+      <c r="J86" s="38" t="str">
+        <f t="shared" ref="J86:AO86" ca="1" si="54">IF(AND($D86="Goal",J$5&gt;=$G86,J$5&lt;=$G86+$H86-1),2,IF(AND($D86="Milestone",J$5&gt;=$G86,J$5&lt;=$G86+$H86-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="L86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="M86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="N86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="O86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="P86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="Q86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="R86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="S86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="T86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="U86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="V86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="W86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="X86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="Y86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="Z86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AA86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AB86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AC86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AD86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AE86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AF86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AG86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AH86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AI86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AJ86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AK86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AL86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AM86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AN86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AO86" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AP86" s="38" t="str">
+        <f t="shared" ref="AP86:BM86" ca="1" si="55">IF(AND($D86="Goal",AP$5&gt;=$G86,AP$5&lt;=$G86+$H86-1),2,IF(AND($D86="Milestone",AP$5&gt;=$G86,AP$5&lt;=$G86+$H86-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ86" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AR86" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AS86" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AT86" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AU86" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AV86" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AW86" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AX86" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AY86" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AZ86" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BA86" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BB86" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BC86" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BD86" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BE86" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BF86" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BG86" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BH86" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BI86" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BJ86" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BK86" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BL86" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BM86" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
       </c>
     </row>
     <row r="87" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
       <c r="B87" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C87" s="41" t="s">
         <v>67</v>
       </c>
       <c r="D87" s="34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E87" s="34">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F87" s="31"/>
       <c r="G87" s="32"/>
       <c r="H87" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I87" s="26"/>
       <c r="J87" s="38" t="s">
@@ -21014,7 +20917,7 @@
     <row r="88" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14"/>
       <c r="B88" s="41" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C88" s="41" t="s">
         <v>67</v>
@@ -21023,243 +20926,187 @@
         <v>17</v>
       </c>
       <c r="E88" s="34">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F88" s="31"/>
       <c r="G88" s="32"/>
       <c r="H88" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I88" s="26"/>
-      <c r="J88" s="38" t="str">
-        <f t="shared" ref="J88:S89" ca="1" si="56">IF(AND($D88="Goal",J$5&gt;=$G88,J$5&lt;=$G88+$H88-1),2,IF(AND($D88="Milestone",J$5&gt;=$G88,J$5&lt;=$G88+$H88-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K88" s="38" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="L88" s="38" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="M88" s="38" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="N88" s="38" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="O88" s="38" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="P88" s="38" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="Q88" s="38" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="R88" s="38" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="S88" s="38" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="T88" s="38" t="str">
-        <f t="shared" ref="T88:AC89" ca="1" si="57">IF(AND($D88="Goal",T$5&gt;=$G88,T$5&lt;=$G88+$H88-1),2,IF(AND($D88="Milestone",T$5&gt;=$G88,T$5&lt;=$G88+$H88-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="U88" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="V88" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="W88" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="X88" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="Y88" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="Z88" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="AA88" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="AB88" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="AC88" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="AD88" s="38" t="str">
-        <f t="shared" ref="AD88:AM89" ca="1" si="58">IF(AND($D88="Goal",AD$5&gt;=$G88,AD$5&lt;=$G88+$H88-1),2,IF(AND($D88="Milestone",AD$5&gt;=$G88,AD$5&lt;=$G88+$H88-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AE88" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AF88" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AG88" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AH88" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AI88" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AJ88" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AK88" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AL88" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AM88" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AN88" s="38" t="str">
-        <f t="shared" ref="AN88:AW89" ca="1" si="59">IF(AND($D88="Goal",AN$5&gt;=$G88,AN$5&lt;=$G88+$H88-1),2,IF(AND($D88="Milestone",AN$5&gt;=$G88,AN$5&lt;=$G88+$H88-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AO88" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="AP88" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="AQ88" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="AR88" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="AS88" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="AT88" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="AU88" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="AV88" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="AW88" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="AX88" s="38" t="str">
-        <f t="shared" ref="AX88:BG89" ca="1" si="60">IF(AND($D88="Goal",AX$5&gt;=$G88,AX$5&lt;=$G88+$H88-1),2,IF(AND($D88="Milestone",AX$5&gt;=$G88,AX$5&lt;=$G88+$H88-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AY88" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="AZ88" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="BA88" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="BB88" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="BC88" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="BD88" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="BE88" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="BF88" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="BG88" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="BH88" s="38" t="str">
-        <f t="shared" ref="BH88:BM89" ca="1" si="61">IF(AND($D88="Goal",BH$5&gt;=$G88,BH$5&lt;=$G88+$H88-1),2,IF(AND($D88="Milestone",BH$5&gt;=$G88,BH$5&lt;=$G88+$H88-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BI88" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="BJ88" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="BK88" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="BL88" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="BM88" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
+      <c r="J88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="L88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="M88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="N88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="O88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="R88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="S88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="T88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="U88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="V88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="W88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="X88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BH88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BI88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL88" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM88" s="38" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
       <c r="B89" s="41" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C89" s="41" t="s">
         <v>67</v>
@@ -21268,7 +21115,7 @@
         <v>17</v>
       </c>
       <c r="E89" s="34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F89" s="31"/>
       <c r="G89" s="32"/>
@@ -21277,7 +21124,7 @@
       </c>
       <c r="I89" s="26"/>
       <c r="J89" s="38" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ref="J89:S90" ca="1" si="56">IF(AND($D89="Goal",J$5&gt;=$G89,J$5&lt;=$G89+$H89-1),2,IF(AND($D89="Milestone",J$5&gt;=$G89,J$5&lt;=$G89+$H89-1),1,""))</f>
         <v/>
       </c>
       <c r="K89" s="38" t="str">
@@ -21317,7 +21164,7 @@
         <v/>
       </c>
       <c r="T89" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ref="T89:AC90" ca="1" si="57">IF(AND($D89="Goal",T$5&gt;=$G89,T$5&lt;=$G89+$H89-1),2,IF(AND($D89="Milestone",T$5&gt;=$G89,T$5&lt;=$G89+$H89-1),1,""))</f>
         <v/>
       </c>
       <c r="U89" s="38" t="str">
@@ -21357,7 +21204,7 @@
         <v/>
       </c>
       <c r="AD89" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ref="AD89:AM90" ca="1" si="58">IF(AND($D89="Goal",AD$5&gt;=$G89,AD$5&lt;=$G89+$H89-1),2,IF(AND($D89="Milestone",AD$5&gt;=$G89,AD$5&lt;=$G89+$H89-1),1,""))</f>
         <v/>
       </c>
       <c r="AE89" s="38" t="str">
@@ -21397,7 +21244,7 @@
         <v/>
       </c>
       <c r="AN89" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ref="AN89:AW90" ca="1" si="59">IF(AND($D89="Goal",AN$5&gt;=$G89,AN$5&lt;=$G89+$H89-1),2,IF(AND($D89="Milestone",AN$5&gt;=$G89,AN$5&lt;=$G89+$H89-1),1,""))</f>
         <v/>
       </c>
       <c r="AO89" s="38" t="str">
@@ -21437,7 +21284,7 @@
         <v/>
       </c>
       <c r="AX89" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ref="AX89:BG90" ca="1" si="60">IF(AND($D89="Goal",AX$5&gt;=$G89,AX$5&lt;=$G89+$H89-1),2,IF(AND($D89="Milestone",AX$5&gt;=$G89,AX$5&lt;=$G89+$H89-1),1,""))</f>
         <v/>
       </c>
       <c r="AY89" s="38" t="str">
@@ -21477,7 +21324,7 @@
         <v/>
       </c>
       <c r="BH89" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ref="BH89:BM90" ca="1" si="61">IF(AND($D89="Goal",BH$5&gt;=$G89,BH$5&lt;=$G89+$H89-1),2,IF(AND($D89="Milestone",BH$5&gt;=$G89,BH$5&lt;=$G89+$H89-1),1,""))</f>
         <v/>
       </c>
       <c r="BI89" s="38" t="str">
@@ -21504,7 +21351,7 @@
     <row r="90" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
       <c r="B90" s="41" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C90" s="41" t="s">
         <v>67</v>
@@ -21513,504 +21360,514 @@
         <v>17</v>
       </c>
       <c r="E90" s="34">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F90" s="31"/>
       <c r="G90" s="32"/>
       <c r="H90" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I90" s="26"/>
-      <c r="J90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="K90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="L90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="M90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="N90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="O90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="P90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="R90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="S90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="T90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="U90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="V90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="W90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="X90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="BA90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="BB90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="BF90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="BG90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="BH90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="BI90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="BL90" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="BM90" s="38" t="s">
-        <v>60</v>
+      <c r="J90" s="38" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="K90" s="38" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="L90" s="38" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="M90" s="38" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="N90" s="38" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="O90" s="38" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="P90" s="38" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="Q90" s="38" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="R90" s="38" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="S90" s="38" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="T90" s="38" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="U90" s="38" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="V90" s="38" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="W90" s="38" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="X90" s="38" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="Y90" s="38" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="Z90" s="38" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AA90" s="38" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AB90" s="38" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AC90" s="38" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AD90" s="38" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AE90" s="38" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AF90" s="38" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AG90" s="38" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AH90" s="38" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AI90" s="38" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AJ90" s="38" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AK90" s="38" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AL90" s="38" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AM90" s="38" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AN90" s="38" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AO90" s="38" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AP90" s="38" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AQ90" s="38" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AR90" s="38" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AS90" s="38" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AT90" s="38" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AU90" s="38" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AV90" s="38" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AW90" s="38" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AX90" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="AY90" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="AZ90" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="BA90" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="BB90" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="BC90" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="BD90" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="BE90" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="BF90" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="BG90" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="BH90" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="BI90" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="BJ90" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="BK90" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="BL90" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="BM90" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
       </c>
     </row>
     <row r="91" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14"/>
-      <c r="B91" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C91" s="55"/>
-      <c r="D91" s="34"/>
+      <c r="B91" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C91" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D91" s="34" t="s">
+        <v>17</v>
+      </c>
       <c r="E91" s="34">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F91" s="31"/>
       <c r="G91" s="32"/>
-      <c r="H91" s="33"/>
+      <c r="H91" s="33">
+        <v>3</v>
+      </c>
       <c r="I91" s="26"/>
-      <c r="J91" s="38"/>
-      <c r="K91" s="38"/>
-      <c r="L91" s="38"/>
-      <c r="M91" s="38"/>
-      <c r="N91" s="38"/>
-      <c r="O91" s="38"/>
-      <c r="P91" s="38"/>
-      <c r="Q91" s="38"/>
-      <c r="R91" s="38"/>
-      <c r="S91" s="38"/>
-      <c r="T91" s="38"/>
-      <c r="U91" s="38"/>
-      <c r="V91" s="38"/>
-      <c r="W91" s="38"/>
-      <c r="X91" s="38"/>
-      <c r="Y91" s="38"/>
-      <c r="Z91" s="38"/>
-      <c r="AA91" s="38"/>
-      <c r="AB91" s="38"/>
-      <c r="AC91" s="38"/>
-      <c r="AD91" s="38"/>
-      <c r="AE91" s="38"/>
-      <c r="AF91" s="38"/>
-      <c r="AG91" s="38"/>
-      <c r="AH91" s="38"/>
-      <c r="AI91" s="38"/>
-      <c r="AJ91" s="38"/>
-      <c r="AK91" s="38"/>
-      <c r="AL91" s="38"/>
-      <c r="AM91" s="38"/>
-      <c r="AN91" s="38"/>
-      <c r="AO91" s="38"/>
-      <c r="AP91" s="38"/>
-      <c r="AQ91" s="38"/>
-      <c r="AR91" s="38"/>
-      <c r="AS91" s="38"/>
-      <c r="AT91" s="38"/>
-      <c r="AU91" s="38"/>
-      <c r="AV91" s="38"/>
-      <c r="AW91" s="38"/>
-      <c r="AX91" s="38"/>
-      <c r="AY91" s="38"/>
-      <c r="AZ91" s="38"/>
-      <c r="BA91" s="38"/>
-      <c r="BB91" s="38"/>
-      <c r="BC91" s="38"/>
-      <c r="BD91" s="38"/>
-      <c r="BE91" s="38"/>
-      <c r="BF91" s="38"/>
-      <c r="BG91" s="38"/>
-      <c r="BH91" s="38"/>
-      <c r="BI91" s="38"/>
-      <c r="BJ91" s="38"/>
-      <c r="BK91" s="38"/>
-      <c r="BL91" s="38"/>
-      <c r="BM91" s="38"/>
+      <c r="J91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="L91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="M91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="N91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="O91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="R91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="S91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="T91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="U91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="V91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="W91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="X91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BH91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BI91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL91" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM91" s="38" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="92" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="15"/>
-      <c r="B92" s="41"/>
-      <c r="C92" s="41"/>
+      <c r="A92" s="14"/>
+      <c r="B92" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C92" s="55"/>
       <c r="D92" s="34"/>
       <c r="E92" s="34">
-        <f>SUBTOTAL(109,E82:E91)</f>
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="F92" s="31"/>
       <c r="G92" s="32"/>
       <c r="H92" s="33"/>
       <c r="I92" s="26"/>
-      <c r="J92" s="38" t="str">
-        <f t="shared" ref="J92:S95" ca="1" si="62">IF(AND($D92="Goal",J$5&gt;=$G92,J$5&lt;=$G92+$H92-1),2,IF(AND($D92="Milestone",J$5&gt;=$G92,J$5&lt;=$G92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K92" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="L92" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="M92" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="N92" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="O92" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="P92" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="Q92" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="R92" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="S92" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="T92" s="38" t="str">
-        <f t="shared" ref="T92:AC95" ca="1" si="63">IF(AND($D92="Goal",T$5&gt;=$G92,T$5&lt;=$G92+$H92-1),2,IF(AND($D92="Milestone",T$5&gt;=$G92,T$5&lt;=$G92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="U92" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="V92" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="W92" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="X92" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="Y92" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="Z92" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AA92" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AB92" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AC92" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AD92" s="38" t="str">
-        <f t="shared" ref="AD92:AM95" ca="1" si="64">IF(AND($D92="Goal",AD$5&gt;=$G92,AD$5&lt;=$G92+$H92-1),2,IF(AND($D92="Milestone",AD$5&gt;=$G92,AD$5&lt;=$G92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AE92" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="AF92" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="AG92" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="AH92" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="AI92" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="AJ92" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="AK92" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="AL92" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="AM92" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="AN92" s="38" t="str">
-        <f t="shared" ref="AN92:AW95" ca="1" si="65">IF(AND($D92="Goal",AN$5&gt;=$G92,AN$5&lt;=$G92+$H92-1),2,IF(AND($D92="Milestone",AN$5&gt;=$G92,AN$5&lt;=$G92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AO92" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AP92" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AQ92" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AR92" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AS92" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AT92" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AU92" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AV92" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AW92" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AX92" s="38" t="str">
-        <f t="shared" ref="AX92:BG95" ca="1" si="66">IF(AND($D92="Goal",AX$5&gt;=$G92,AX$5&lt;=$G92+$H92-1),2,IF(AND($D92="Milestone",AX$5&gt;=$G92,AX$5&lt;=$G92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AY92" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AZ92" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BA92" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BB92" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BC92" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BD92" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BE92" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BF92" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BG92" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BH92" s="38" t="str">
-        <f t="shared" ref="BH92:BM95" ca="1" si="67">IF(AND($D92="Goal",BH$5&gt;=$G92,BH$5&lt;=$G92+$H92-1),2,IF(AND($D92="Milestone",BH$5&gt;=$G92,BH$5&lt;=$G92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BI92" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="BJ92" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="BK92" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="BL92" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="BM92" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
+      <c r="J92" s="38"/>
+      <c r="K92" s="38"/>
+      <c r="L92" s="38"/>
+      <c r="M92" s="38"/>
+      <c r="N92" s="38"/>
+      <c r="O92" s="38"/>
+      <c r="P92" s="38"/>
+      <c r="Q92" s="38"/>
+      <c r="R92" s="38"/>
+      <c r="S92" s="38"/>
+      <c r="T92" s="38"/>
+      <c r="U92" s="38"/>
+      <c r="V92" s="38"/>
+      <c r="W92" s="38"/>
+      <c r="X92" s="38"/>
+      <c r="Y92" s="38"/>
+      <c r="Z92" s="38"/>
+      <c r="AA92" s="38"/>
+      <c r="AB92" s="38"/>
+      <c r="AC92" s="38"/>
+      <c r="AD92" s="38"/>
+      <c r="AE92" s="38"/>
+      <c r="AF92" s="38"/>
+      <c r="AG92" s="38"/>
+      <c r="AH92" s="38"/>
+      <c r="AI92" s="38"/>
+      <c r="AJ92" s="38"/>
+      <c r="AK92" s="38"/>
+      <c r="AL92" s="38"/>
+      <c r="AM92" s="38"/>
+      <c r="AN92" s="38"/>
+      <c r="AO92" s="38"/>
+      <c r="AP92" s="38"/>
+      <c r="AQ92" s="38"/>
+      <c r="AR92" s="38"/>
+      <c r="AS92" s="38"/>
+      <c r="AT92" s="38"/>
+      <c r="AU92" s="38"/>
+      <c r="AV92" s="38"/>
+      <c r="AW92" s="38"/>
+      <c r="AX92" s="38"/>
+      <c r="AY92" s="38"/>
+      <c r="AZ92" s="38"/>
+      <c r="BA92" s="38"/>
+      <c r="BB92" s="38"/>
+      <c r="BC92" s="38"/>
+      <c r="BD92" s="38"/>
+      <c r="BE92" s="38"/>
+      <c r="BF92" s="38"/>
+      <c r="BG92" s="38"/>
+      <c r="BH92" s="38"/>
+      <c r="BI92" s="38"/>
+      <c r="BJ92" s="38"/>
+      <c r="BK92" s="38"/>
+      <c r="BL92" s="38"/>
+      <c r="BM92" s="38"/>
     </row>
     <row r="93" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
       <c r="B93" s="41"/>
       <c r="C93" s="41"/>
       <c r="D93" s="34"/>
-      <c r="E93" s="34"/>
+      <c r="E93" s="34">
+        <f>SUBTOTAL(109,E83:E92)</f>
+        <v>128</v>
+      </c>
       <c r="F93" s="31"/>
       <c r="G93" s="32"/>
       <c r="H93" s="33"/>
       <c r="I93" s="26"/>
       <c r="J93" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ref="J93:S96" ca="1" si="62">IF(AND($D93="Goal",J$5&gt;=$G93,J$5&lt;=$G93+$H93-1),2,IF(AND($D93="Milestone",J$5&gt;=$G93,J$5&lt;=$G93+$H93-1),1,""))</f>
         <v/>
       </c>
       <c r="K93" s="38" t="str">
@@ -22050,7 +21907,7 @@
         <v/>
       </c>
       <c r="T93" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ref="T93:AC96" ca="1" si="63">IF(AND($D93="Goal",T$5&gt;=$G93,T$5&lt;=$G93+$H93-1),2,IF(AND($D93="Milestone",T$5&gt;=$G93,T$5&lt;=$G93+$H93-1),1,""))</f>
         <v/>
       </c>
       <c r="U93" s="38" t="str">
@@ -22090,7 +21947,7 @@
         <v/>
       </c>
       <c r="AD93" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ref="AD93:AM96" ca="1" si="64">IF(AND($D93="Goal",AD$5&gt;=$G93,AD$5&lt;=$G93+$H93-1),2,IF(AND($D93="Milestone",AD$5&gt;=$G93,AD$5&lt;=$G93+$H93-1),1,""))</f>
         <v/>
       </c>
       <c r="AE93" s="38" t="str">
@@ -22130,7 +21987,7 @@
         <v/>
       </c>
       <c r="AN93" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ref="AN93:AW96" ca="1" si="65">IF(AND($D93="Goal",AN$5&gt;=$G93,AN$5&lt;=$G93+$H93-1),2,IF(AND($D93="Milestone",AN$5&gt;=$G93,AN$5&lt;=$G93+$H93-1),1,""))</f>
         <v/>
       </c>
       <c r="AO93" s="38" t="str">
@@ -22170,7 +22027,7 @@
         <v/>
       </c>
       <c r="AX93" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ref="AX93:BG96" ca="1" si="66">IF(AND($D93="Goal",AX$5&gt;=$G93,AX$5&lt;=$G93+$H93-1),2,IF(AND($D93="Milestone",AX$5&gt;=$G93,AX$5&lt;=$G93+$H93-1),1,""))</f>
         <v/>
       </c>
       <c r="AY93" s="38" t="str">
@@ -22210,7 +22067,7 @@
         <v/>
       </c>
       <c r="BH93" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ref="BH93:BM96" ca="1" si="67">IF(AND($D93="Goal",BH$5&gt;=$G93,BH$5&lt;=$G93+$H93-1),2,IF(AND($D93="Milestone",BH$5&gt;=$G93,BH$5&lt;=$G93+$H93-1),1,""))</f>
         <v/>
       </c>
       <c r="BI93" s="38" t="str">
@@ -22470,9 +22327,7 @@
       </c>
     </row>
     <row r="95" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="A95" s="15"/>
       <c r="B95" s="41"/>
       <c r="C95" s="41"/>
       <c r="D95" s="34"/>
@@ -22706,84 +22561,321 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="15" t="s">
+    <row r="96" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="41"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="38" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="K96" s="38" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="L96" s="38" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="M96" s="38" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="N96" s="38" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="O96" s="38" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="P96" s="38" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="Q96" s="38" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="R96" s="38" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="S96" s="38" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="T96" s="38" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="U96" s="38" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="V96" s="38" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="W96" s="38" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="X96" s="38" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="Y96" s="38" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="Z96" s="38" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AA96" s="38" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AB96" s="38" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AC96" s="38" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AD96" s="38" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="AE96" s="38" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="AF96" s="38" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="AG96" s="38" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="AH96" s="38" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="AI96" s="38" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="AJ96" s="38" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="AK96" s="38" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="AL96" s="38" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="AM96" s="38" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="AN96" s="38" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AO96" s="38" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AP96" s="38" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AQ96" s="38" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AR96" s="38" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AS96" s="38" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AT96" s="38" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AU96" s="38" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AV96" s="38" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AW96" s="38" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AX96" s="38" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AY96" s="38" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AZ96" s="38" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BA96" s="38" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BB96" s="38" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BC96" s="38" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BD96" s="38" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BE96" s="38" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BF96" s="38" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BG96" s="38" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BH96" s="38" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="BI96" s="38" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="BJ96" s="38" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="BK96" s="38" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="BL96" s="38" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="BM96" s="38" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B96" s="24" t="s">
+      <c r="B97" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="42"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="39"/>
-      <c r="J96" s="37"/>
-      <c r="K96" s="37"/>
-      <c r="L96" s="37"/>
-      <c r="M96" s="37"/>
-      <c r="N96" s="37"/>
-      <c r="O96" s="37"/>
-      <c r="P96" s="37"/>
-      <c r="Q96" s="37"/>
-      <c r="R96" s="37"/>
-      <c r="S96" s="37"/>
-      <c r="T96" s="37"/>
-      <c r="U96" s="37"/>
-      <c r="V96" s="37"/>
-      <c r="W96" s="37"/>
-      <c r="X96" s="37"/>
-      <c r="Y96" s="37"/>
-      <c r="Z96" s="37"/>
-      <c r="AA96" s="37"/>
-      <c r="AB96" s="37"/>
-      <c r="AC96" s="37"/>
-      <c r="AD96" s="37"/>
-      <c r="AE96" s="37"/>
-      <c r="AF96" s="37"/>
-      <c r="AG96" s="37"/>
-      <c r="AH96" s="37"/>
-      <c r="AI96" s="37"/>
-      <c r="AJ96" s="37"/>
-      <c r="AK96" s="37"/>
-      <c r="AL96" s="37"/>
-      <c r="AM96" s="37"/>
-      <c r="AN96" s="37"/>
-      <c r="AO96" s="37"/>
-      <c r="AP96" s="37"/>
-      <c r="AQ96" s="37"/>
-      <c r="AR96" s="37"/>
-      <c r="AS96" s="37"/>
-      <c r="AT96" s="37"/>
-      <c r="AU96" s="37"/>
-      <c r="AV96" s="37"/>
-      <c r="AW96" s="37"/>
-      <c r="AX96" s="37"/>
-      <c r="AY96" s="37"/>
-      <c r="AZ96" s="37"/>
-      <c r="BA96" s="37"/>
-      <c r="BB96" s="37"/>
-      <c r="BC96" s="37"/>
-      <c r="BD96" s="37"/>
-      <c r="BE96" s="37"/>
-      <c r="BF96" s="37"/>
-      <c r="BG96" s="37"/>
-      <c r="BH96" s="37"/>
-      <c r="BI96" s="37"/>
-      <c r="BJ96" s="37"/>
-      <c r="BK96" s="37"/>
-      <c r="BL96" s="37"/>
-      <c r="BM96" s="37"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="37"/>
+      <c r="K97" s="37"/>
+      <c r="L97" s="37"/>
+      <c r="M97" s="37"/>
+      <c r="N97" s="37"/>
+      <c r="O97" s="37"/>
+      <c r="P97" s="37"/>
+      <c r="Q97" s="37"/>
+      <c r="R97" s="37"/>
+      <c r="S97" s="37"/>
+      <c r="T97" s="37"/>
+      <c r="U97" s="37"/>
+      <c r="V97" s="37"/>
+      <c r="W97" s="37"/>
+      <c r="X97" s="37"/>
+      <c r="Y97" s="37"/>
+      <c r="Z97" s="37"/>
+      <c r="AA97" s="37"/>
+      <c r="AB97" s="37"/>
+      <c r="AC97" s="37"/>
+      <c r="AD97" s="37"/>
+      <c r="AE97" s="37"/>
+      <c r="AF97" s="37"/>
+      <c r="AG97" s="37"/>
+      <c r="AH97" s="37"/>
+      <c r="AI97" s="37"/>
+      <c r="AJ97" s="37"/>
+      <c r="AK97" s="37"/>
+      <c r="AL97" s="37"/>
+      <c r="AM97" s="37"/>
+      <c r="AN97" s="37"/>
+      <c r="AO97" s="37"/>
+      <c r="AP97" s="37"/>
+      <c r="AQ97" s="37"/>
+      <c r="AR97" s="37"/>
+      <c r="AS97" s="37"/>
+      <c r="AT97" s="37"/>
+      <c r="AU97" s="37"/>
+      <c r="AV97" s="37"/>
+      <c r="AW97" s="37"/>
+      <c r="AX97" s="37"/>
+      <c r="AY97" s="37"/>
+      <c r="AZ97" s="37"/>
+      <c r="BA97" s="37"/>
+      <c r="BB97" s="37"/>
+      <c r="BC97" s="37"/>
+      <c r="BD97" s="37"/>
+      <c r="BE97" s="37"/>
+      <c r="BF97" s="37"/>
+      <c r="BG97" s="37"/>
+      <c r="BH97" s="37"/>
+      <c r="BI97" s="37"/>
+      <c r="BJ97" s="37"/>
+      <c r="BK97" s="37"/>
+      <c r="BL97" s="37"/>
+      <c r="BM97" s="37"/>
     </row>
-    <row r="97" spans="5:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E97" s="5"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="4"/>
+    <row r="98" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E98" s="5"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="4"/>
     </row>
-    <row r="98" spans="5:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E98" s="6"/>
+    <row r="99" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E99" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -22797,7 +22889,7 @@
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="T2:W2"/>
   </mergeCells>
-  <conditionalFormatting sqref="F7:F8 F95 F67:F70 F76 F52 F73 F82 F62:F65 F54:F55 F10 F22:F42 F44:F49">
+  <conditionalFormatting sqref="F7:F8 F96 F68:F71 F77 F53 F74 F83 F63:F66 F55:F56 F10 F45:F50 F22:F43">
     <cfRule type="dataBar" priority="250">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -22811,7 +22903,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:BM8 J95:BM96 J67:BM70 J76:BM76 J52:BM52 J73:BM73 J82:BM82 J62:BM65 J54:BM55 J10:BM10 J22:BM42 J44:BM49">
+  <conditionalFormatting sqref="J5:BM8 J96:BM97 J68:BM71 J77:BM77 J53:BM53 J74:BM74 J83:BM83 J63:BM66 J55:BM56 J10:BM10 J45:BM50 J22:BM43">
     <cfRule type="expression" dxfId="75" priority="243">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
@@ -22831,7 +22923,7 @@
       <formula>AND(J$5&lt;=EOMONTH($J$5,1),J$5&gt;EOMONTH($J$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:BM8 J10:BM10 J22:BM95">
+  <conditionalFormatting sqref="J8:BM8 J10:BM10 J22:BM96">
     <cfRule type="expression" dxfId="71" priority="266" stopIfTrue="1">
       <formula>AND($D8="Low risk",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
@@ -22848,7 +22940,7 @@
       <formula>AND(LEN($D8)=0,J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J96:BM96">
+  <conditionalFormatting sqref="J97:BM97">
     <cfRule type="expression" dxfId="66" priority="313" stopIfTrue="1">
       <formula>AND(#REF!="Low risk",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
@@ -22901,7 +22993,7 @@
       <formula>AND(LEN($D9)=0,J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56:F57 F59">
+  <conditionalFormatting sqref="F57:F58 F60">
     <cfRule type="dataBar" priority="217">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -22915,12 +23007,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J59:BM59 J56:BM57">
+  <conditionalFormatting sqref="J60:BM60 J57:BM58">
     <cfRule type="expression" dxfId="55" priority="218">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
+  <conditionalFormatting sqref="F62">
     <cfRule type="dataBar" priority="210">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -22934,12 +23026,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J61:GC61">
+  <conditionalFormatting sqref="J62:GC62">
     <cfRule type="expression" dxfId="54" priority="209">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58 F60">
+  <conditionalFormatting sqref="F59 F61">
     <cfRule type="dataBar" priority="201">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -22953,12 +23045,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J60:BM60 J58:BM58">
+  <conditionalFormatting sqref="J61:BM61 J59:BM59">
     <cfRule type="expression" dxfId="53" priority="202">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
+  <conditionalFormatting sqref="F44">
     <cfRule type="dataBar" priority="193">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -22972,12 +23064,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J43:BM43">
+  <conditionalFormatting sqref="J44:BM44">
     <cfRule type="expression" dxfId="52" priority="194">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
+  <conditionalFormatting sqref="F67">
     <cfRule type="dataBar" priority="186">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -22991,12 +23083,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J66:GC66">
+  <conditionalFormatting sqref="J67:GC67">
     <cfRule type="expression" dxfId="51" priority="185">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F77:F78 F80:F82 F85 F92:F94">
+  <conditionalFormatting sqref="F78:F79 F81:F83 F86 F93:F95">
     <cfRule type="dataBar" priority="177">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -23010,12 +23102,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J77:GC78 J80:GC82 J85:GC85 J92:GC94">
+  <conditionalFormatting sqref="J78:GC79 J81:GC83 J86:GC86 J93:GC95">
     <cfRule type="expression" dxfId="50" priority="178">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F79">
+  <conditionalFormatting sqref="F80">
     <cfRule type="dataBar" priority="169">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -23029,12 +23121,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J79:GC79">
+  <conditionalFormatting sqref="J80:GC80">
     <cfRule type="expression" dxfId="49" priority="170">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F75">
+  <conditionalFormatting sqref="F76">
     <cfRule type="dataBar" priority="162">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -23048,12 +23140,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J75:GC75">
+  <conditionalFormatting sqref="J76:GC76">
     <cfRule type="expression" dxfId="48" priority="161">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
+  <conditionalFormatting sqref="F52">
     <cfRule type="dataBar" priority="154">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -23067,12 +23159,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J51:GC51">
+  <conditionalFormatting sqref="J52:GC52">
     <cfRule type="expression" dxfId="47" priority="153">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F72">
+  <conditionalFormatting sqref="F73">
     <cfRule type="dataBar" priority="146">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -23086,12 +23178,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J72:BM72">
+  <conditionalFormatting sqref="J73:BM73">
     <cfRule type="expression" dxfId="46" priority="145">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F83:F84">
+  <conditionalFormatting sqref="F84:F85">
     <cfRule type="dataBar" priority="138">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -23105,12 +23197,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J83:GC84">
+  <conditionalFormatting sqref="J84:GC85">
     <cfRule type="expression" dxfId="45" priority="137">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:F87">
+  <conditionalFormatting sqref="F87:F88">
     <cfRule type="dataBar" priority="130">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -23124,12 +23216,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J86:GC87">
+  <conditionalFormatting sqref="J87:GC88">
     <cfRule type="expression" dxfId="44" priority="129">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90">
+  <conditionalFormatting sqref="F91">
     <cfRule type="dataBar" priority="122">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -23143,12 +23235,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J90:GC90">
+  <conditionalFormatting sqref="J91:GC91">
     <cfRule type="expression" dxfId="43" priority="121">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F91">
+  <conditionalFormatting sqref="F92">
     <cfRule type="dataBar" priority="114">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -23162,12 +23254,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J91:GC91">
+  <conditionalFormatting sqref="J92:GC92">
     <cfRule type="expression" dxfId="42" priority="113">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74">
+  <conditionalFormatting sqref="F75">
     <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -23181,12 +23273,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J74:BM74">
+  <conditionalFormatting sqref="J75:BM75">
     <cfRule type="expression" dxfId="41" priority="105">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
+  <conditionalFormatting sqref="F54">
     <cfRule type="dataBar" priority="98">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -23200,12 +23292,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53:BM53">
+  <conditionalFormatting sqref="J54:BM54">
     <cfRule type="expression" dxfId="40" priority="97">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
+  <conditionalFormatting sqref="F90">
     <cfRule type="dataBar" priority="90">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -23219,12 +23311,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J89:BM89">
+  <conditionalFormatting sqref="J90:BM90">
     <cfRule type="expression" dxfId="39" priority="89">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71">
+  <conditionalFormatting sqref="F72">
     <cfRule type="dataBar" priority="58">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -23238,12 +23330,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J71:BM71">
+  <conditionalFormatting sqref="J72:BM72">
     <cfRule type="expression" dxfId="38" priority="57">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88">
+  <conditionalFormatting sqref="F89">
     <cfRule type="dataBar" priority="66">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -23257,17 +23349,17 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J88:GC88">
+  <conditionalFormatting sqref="J89:GC89">
     <cfRule type="expression" dxfId="37" priority="65">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50:BM50">
+  <conditionalFormatting sqref="J51:BM51">
     <cfRule type="expression" dxfId="36" priority="49">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
+  <conditionalFormatting sqref="F51">
     <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -23501,10 +23593,10 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="G4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D9 D11:D24 D43:D95" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D9 D11:D24 D44:D96" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Goal,Milestone,On track, Low risk, Med risk, High risk"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D10 D22:D42" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D10 D22:D43" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Goal,Milestone,On track, Low risk, Med risk, High risk"</formula1>
     </dataValidation>
   </dataValidations>
@@ -23559,7 +23651,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F7:F8 F95 F67:F70 F76 F52 F73 F82 F62:F65 F54:F55 F10 F22:F42 F44:F49</xm:sqref>
+          <xm:sqref>F7:F8 F96 F68:F71 F77 F53 F74 F83 F63:F66 F55:F56 F10 F45:F50 F22:F43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AB15B3D1-2A05-48F7-BD43-B741E186FE95}">
@@ -23589,7 +23681,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F56:F57 F59</xm:sqref>
+          <xm:sqref>F57:F58 F60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DE2EEDB3-74BE-439B-8BDB-7DFDA8169FC0}">
@@ -23604,7 +23696,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F61</xm:sqref>
+          <xm:sqref>F62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5DA7E074-67DF-4101-BD08-BF4E7C025561}">
@@ -23619,7 +23711,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F58 F60</xm:sqref>
+          <xm:sqref>F59 F61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{20AD0325-5A08-4704-8CC7-A6E9457B1E3F}">
@@ -23634,7 +23726,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F43</xm:sqref>
+          <xm:sqref>F44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FB79D9D5-2573-4918-A758-531107DFB641}">
@@ -23649,7 +23741,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F66</xm:sqref>
+          <xm:sqref>F67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4E5B35EE-C5D9-44CB-8B8A-F68FE56F654D}">
@@ -23664,7 +23756,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F77:F78 F80:F82 F85 F92:F94</xm:sqref>
+          <xm:sqref>F78:F79 F81:F83 F86 F93:F95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E907EE82-9BFA-4154-BA99-9E3F4D50179D}">
@@ -23679,7 +23771,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F79</xm:sqref>
+          <xm:sqref>F80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{024081F2-43F6-443F-B26C-B3DBC40FD2C4}">
@@ -23694,7 +23786,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F75</xm:sqref>
+          <xm:sqref>F76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1EC88061-62A8-43D7-8F0A-93CD6FB29F0A}">
@@ -23709,7 +23801,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F51</xm:sqref>
+          <xm:sqref>F52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{28C8AF4A-6D9D-4A0C-A1F5-5A59DE30600D}">
@@ -23724,7 +23816,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F72</xm:sqref>
+          <xm:sqref>F73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{897AE99D-B92A-4BE7-8B0E-62523CB22F17}">
@@ -23739,7 +23831,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F83:F84</xm:sqref>
+          <xm:sqref>F84:F85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{60890710-5300-4C82-82EC-4901B5E4785E}">
@@ -23754,7 +23846,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F86:F87</xm:sqref>
+          <xm:sqref>F87:F88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A98051D5-9E48-42AC-B5BA-FCC4DFA85C73}">
@@ -23769,7 +23861,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F90</xm:sqref>
+          <xm:sqref>F91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FB666FCE-B643-41CC-A6F3-DE225639E380}">
@@ -23784,7 +23876,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F91</xm:sqref>
+          <xm:sqref>F92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{292B9690-C8FA-40EF-B2E4-3919B9536A3E}">
@@ -23799,7 +23891,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F74</xm:sqref>
+          <xm:sqref>F75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7D131880-EF7B-4C8B-9655-98AFA8E5B90E}">
@@ -23814,7 +23906,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F53</xm:sqref>
+          <xm:sqref>F54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8E51943A-8739-4421-8F28-B2351642D25F}">
@@ -23829,7 +23921,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F89</xm:sqref>
+          <xm:sqref>F90</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6359176B-902E-4CBF-94AD-B0471FE3997D}">
@@ -23844,7 +23936,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F71</xm:sqref>
+          <xm:sqref>F72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4ECC6297-F486-457C-AD78-59AACF32CA46}">
@@ -23859,7 +23951,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F88</xm:sqref>
+          <xm:sqref>F89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0C3F755F-3B19-445A-8DDE-10E2BA74A18E}">
@@ -23874,7 +23966,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F50</xm:sqref>
+          <xm:sqref>F51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8ACFDE13-4E52-4E8F-853F-278A22F3B649}">
@@ -23983,7 +24075,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J96:BM96</xm:sqref>
+          <xm:sqref>J97:BM97</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="235" id="{03DA8032-3E5A-4348-8737-FACB24C58C7D}">
@@ -24021,7 +24113,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J59:BM59 J56:BM57</xm:sqref>
+          <xm:sqref>J60:BM60 J57:BM58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="216" id="{0F99AFDB-3E88-4EFF-8022-B626D3C66F65}">
@@ -24040,7 +24132,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J61:BM61</xm:sqref>
+          <xm:sqref>J62:BM62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="203" id="{EE50C122-2903-4C7B-B872-C5C3C41F343A}">
@@ -24059,7 +24151,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J60:BM60 J58:BM58</xm:sqref>
+          <xm:sqref>J61:BM61 J59:BM59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="195" id="{245D6783-BA61-466D-B247-0CD747F0DAD7}">
@@ -24078,7 +24170,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J43:BM43</xm:sqref>
+          <xm:sqref>J44:BM44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="375" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
@@ -24097,7 +24189,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J95:BM95 J82:BM82 J8:BM8 J44:BM49 J67:BM70 J76:BM76 J52:BM52 J73:BM73 J62:BM65 J54:BM55 J10:BM10 J22:BM42</xm:sqref>
+          <xm:sqref>J96:BM96 J83:BM83 J8:BM8 J45:BM50 J68:BM71 J77:BM77 J53:BM53 J74:BM74 J63:BM66 J55:BM56 J10:BM10 J22:BM43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="192" id="{085A3FF5-1243-45B7-A70C-D34452A2D8D7}">
@@ -24116,7 +24208,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J66:BM66</xm:sqref>
+          <xm:sqref>J67:BM67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="179" id="{FE097879-5960-4272-998A-6FD9844EE889}">
@@ -24135,7 +24227,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J92:BM94 J77:BM78 J80:BM81 J85:BM85</xm:sqref>
+          <xm:sqref>J93:BM95 J78:BM79 J81:BM82 J86:BM86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="171" id="{D28BC5B3-7E33-446B-B026-13D776884AA0}">
@@ -24154,7 +24246,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J79:BM79</xm:sqref>
+          <xm:sqref>J80:BM80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="168" id="{1A433099-825F-427E-A33F-D1C109BED0CC}">
@@ -24173,7 +24265,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J75:BM75</xm:sqref>
+          <xm:sqref>J76:BM76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="160" id="{27367725-6913-4DBF-9A9F-F3CC48904410}">
@@ -24192,7 +24284,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J51:BM51</xm:sqref>
+          <xm:sqref>J52:BM52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="152" id="{879FE731-A465-40E9-81AA-6B31A54BF3CA}">
@@ -24211,7 +24303,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J72:BM72</xm:sqref>
+          <xm:sqref>J73:BM73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="144" id="{54FE0357-47DA-41F8-8154-853D650EB0BA}">
@@ -24230,7 +24322,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J83:BM84</xm:sqref>
+          <xm:sqref>J84:BM85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="128" id="{EEF08E67-1B2F-4EA1-A44D-970B0AD110CA}">
@@ -24249,7 +24341,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J90:BM90</xm:sqref>
+          <xm:sqref>J91:BM91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="120" id="{13F66245-771B-48EA-A5D3-2718736A6B30}">
@@ -24268,7 +24360,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J91:BM91</xm:sqref>
+          <xm:sqref>J92:BM92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="398" id="{C301259E-5033-4A56-A719-2062DE7D0A19}">
@@ -24287,7 +24379,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J86:BM87</xm:sqref>
+          <xm:sqref>J87:BM88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="107" id="{FDB838CD-B891-4E13-915F-587187ED6DF1}">
@@ -24306,7 +24398,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J74:BM74</xm:sqref>
+          <xm:sqref>J75:BM75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="99" id="{F1AA3492-E31B-427F-BDE4-C72EA0304B6B}">
@@ -24325,7 +24417,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J53:BM53</xm:sqref>
+          <xm:sqref>J54:BM54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="91" id="{CAD5B80A-E3AE-44C2-A6A8-F4F6608A13F3}">
@@ -24344,7 +24436,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J89:BM89</xm:sqref>
+          <xm:sqref>J90:BM90</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="72" id="{40246DCC-6E5A-4A37-B6D6-5B654D582B5E}">
@@ -24363,7 +24455,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J88:BM88</xm:sqref>
+          <xm:sqref>J89:BM89</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="64" id="{B00FCB31-9872-4122-A4DC-0BBCF2423A6C}">
@@ -24382,7 +24474,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J71:BM71</xm:sqref>
+          <xm:sqref>J72:BM72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="56" id="{DFF9B9EB-1D26-40BA-A680-CEDC5EB2BE21}">
@@ -24401,7 +24493,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J50:BM50</xm:sqref>
+          <xm:sqref>J51:BM51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="48" id="{4272E597-1EBE-45FD-A260-CC36A44DAD32}">

--- a/Planning Report/application sprint planner sprint1 18.11.19.xlsx
+++ b/Planning Report/application sprint planner sprint1 18.11.19.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C4064F-354B-453F-81D5-C8A83554ECC7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9C5CED-06D3-4BB3-A514-8E139108EAE1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="28200" windowHeight="14085" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -1355,6 +1355,40 @@
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="92">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2860,40 +2894,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -3215,10 +3215,10 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone description" dataDxfId="79"/>
-    <tableColumn id="7" xr3:uid="{C2AA6DD8-DBD1-4E89-A1EF-3287225D3E74}" name="Required" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Estimated Duration" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone description" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{C2AA6DD8-DBD1-4E89-A1EF-3287225D3E74}" name="Required" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Estimated Duration" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="No. Days" dataCellStyle="Comma [0]"/>
@@ -3498,8 +3498,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BM99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8729,7 +8729,7 @@
       <c r="F28" s="31"/>
       <c r="G28" s="32"/>
       <c r="H28" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28" s="26"/>
       <c r="J28" s="38" t="str">
@@ -10837,7 +10837,9 @@
         <v>4</v>
       </c>
       <c r="F40" s="31"/>
-      <c r="G40" s="32"/>
+      <c r="G40" s="32">
+        <v>43789</v>
+      </c>
       <c r="H40" s="33">
         <v>1</v>
       </c>
@@ -11082,7 +11084,9 @@
         <v>2</v>
       </c>
       <c r="F41" s="31"/>
-      <c r="G41" s="32"/>
+      <c r="G41" s="32">
+        <v>43789</v>
+      </c>
       <c r="H41" s="33">
         <v>1</v>
       </c>
@@ -22904,56 +22908,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:BM8 J96:BM97 J68:BM71 J77:BM77 J53:BM53 J74:BM74 J83:BM83 J63:BM66 J55:BM56 J10:BM10 J45:BM50 J22:BM43">
-    <cfRule type="expression" dxfId="75" priority="243">
+    <cfRule type="expression" dxfId="79" priority="243">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:AN4">
-    <cfRule type="expression" dxfId="74" priority="249">
+    <cfRule type="expression" dxfId="78" priority="249">
       <formula>J$5&lt;=EOMONTH($J$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:BM4">
-    <cfRule type="expression" dxfId="73" priority="245">
+    <cfRule type="expression" dxfId="77" priority="245">
       <formula>AND(K$5&lt;=EOMONTH($J$5,2),K$5&gt;EOMONTH($J$5,0),K$5&gt;EOMONTH($J$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:BM4">
-    <cfRule type="expression" dxfId="72" priority="244">
+    <cfRule type="expression" dxfId="76" priority="244">
       <formula>AND(J$5&lt;=EOMONTH($J$5,1),J$5&gt;EOMONTH($J$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:BM8 J10:BM10 J22:BM96">
-    <cfRule type="expression" dxfId="71" priority="266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="266" stopIfTrue="1">
       <formula>AND($D8="Low risk",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="285" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="285" stopIfTrue="1">
       <formula>AND($D8="High risk",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="303" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="303" stopIfTrue="1">
       <formula>AND($D8="On track",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="304" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="304" stopIfTrue="1">
       <formula>AND($D8="Med risk",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="305" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="305" stopIfTrue="1">
       <formula>AND(LEN($D8)=0,J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J97:BM97">
-    <cfRule type="expression" dxfId="66" priority="313" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="313" stopIfTrue="1">
       <formula>AND(#REF!="Low risk",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="314" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="314" stopIfTrue="1">
       <formula>AND(#REF!="High risk",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="315" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="315" stopIfTrue="1">
       <formula>AND(#REF!="On track",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="316" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="316" stopIfTrue="1">
       <formula>AND(#REF!="Med risk",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="317" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22972,24 +22976,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:BM9">
-    <cfRule type="expression" dxfId="61" priority="234">
+    <cfRule type="expression" dxfId="65" priority="234">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:BM9">
-    <cfRule type="expression" dxfId="60" priority="236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="236" stopIfTrue="1">
       <formula>AND($D9="Low risk",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="237" stopIfTrue="1">
       <formula>AND($D9="High risk",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="238" stopIfTrue="1">
       <formula>AND($D9="On track",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="239" stopIfTrue="1">
       <formula>AND($D9="Med risk",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="240" stopIfTrue="1">
       <formula>AND(LEN($D9)=0,J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23008,7 +23012,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60:BM60 J57:BM58">
-    <cfRule type="expression" dxfId="55" priority="218">
+    <cfRule type="expression" dxfId="59" priority="218">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23027,7 +23031,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J62:GC62">
-    <cfRule type="expression" dxfId="54" priority="209">
+    <cfRule type="expression" dxfId="58" priority="209">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23046,7 +23050,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J61:BM61 J59:BM59">
-    <cfRule type="expression" dxfId="53" priority="202">
+    <cfRule type="expression" dxfId="57" priority="202">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23065,7 +23069,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:BM44">
-    <cfRule type="expression" dxfId="52" priority="194">
+    <cfRule type="expression" dxfId="56" priority="194">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23084,7 +23088,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J67:GC67">
-    <cfRule type="expression" dxfId="51" priority="185">
+    <cfRule type="expression" dxfId="55" priority="185">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23103,7 +23107,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J78:GC79 J81:GC83 J86:GC86 J93:GC95">
-    <cfRule type="expression" dxfId="50" priority="178">
+    <cfRule type="expression" dxfId="54" priority="178">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23122,7 +23126,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J80:GC80">
-    <cfRule type="expression" dxfId="49" priority="170">
+    <cfRule type="expression" dxfId="53" priority="170">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23141,7 +23145,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J76:GC76">
-    <cfRule type="expression" dxfId="48" priority="161">
+    <cfRule type="expression" dxfId="52" priority="161">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23160,7 +23164,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52:GC52">
-    <cfRule type="expression" dxfId="47" priority="153">
+    <cfRule type="expression" dxfId="51" priority="153">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23179,7 +23183,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J73:BM73">
-    <cfRule type="expression" dxfId="46" priority="145">
+    <cfRule type="expression" dxfId="50" priority="145">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23198,7 +23202,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J84:GC85">
-    <cfRule type="expression" dxfId="45" priority="137">
+    <cfRule type="expression" dxfId="49" priority="137">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23217,7 +23221,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J87:GC88">
-    <cfRule type="expression" dxfId="44" priority="129">
+    <cfRule type="expression" dxfId="48" priority="129">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23236,7 +23240,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J91:GC91">
-    <cfRule type="expression" dxfId="43" priority="121">
+    <cfRule type="expression" dxfId="47" priority="121">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23255,7 +23259,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J92:GC92">
-    <cfRule type="expression" dxfId="42" priority="113">
+    <cfRule type="expression" dxfId="46" priority="113">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23274,7 +23278,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75:BM75">
-    <cfRule type="expression" dxfId="41" priority="105">
+    <cfRule type="expression" dxfId="45" priority="105">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23293,7 +23297,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54:BM54">
-    <cfRule type="expression" dxfId="40" priority="97">
+    <cfRule type="expression" dxfId="44" priority="97">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23312,7 +23316,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J90:BM90">
-    <cfRule type="expression" dxfId="39" priority="89">
+    <cfRule type="expression" dxfId="43" priority="89">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23331,7 +23335,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72:BM72">
-    <cfRule type="expression" dxfId="38" priority="57">
+    <cfRule type="expression" dxfId="42" priority="57">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23350,12 +23354,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J89:GC89">
-    <cfRule type="expression" dxfId="37" priority="65">
+    <cfRule type="expression" dxfId="41" priority="65">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51:BM51">
-    <cfRule type="expression" dxfId="36" priority="49">
+    <cfRule type="expression" dxfId="40" priority="49">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23388,24 +23392,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:BM11">
-    <cfRule type="expression" dxfId="35" priority="41">
+    <cfRule type="expression" dxfId="39" priority="41">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:BM11">
-    <cfRule type="expression" dxfId="34" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="43" stopIfTrue="1">
       <formula>AND($D11="Low risk",J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="44" stopIfTrue="1">
       <formula>AND($D11="High risk",J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="45" stopIfTrue="1">
       <formula>AND($D11="On track",J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="46" stopIfTrue="1">
       <formula>AND($D11="Med risk",J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="47" stopIfTrue="1">
       <formula>AND(LEN($D11)=0,J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23424,24 +23428,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:BM14">
-    <cfRule type="expression" dxfId="29" priority="33">
+    <cfRule type="expression" dxfId="33" priority="33">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:BM14">
-    <cfRule type="expression" dxfId="28" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="35" stopIfTrue="1">
       <formula>AND($D12="Low risk",J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="36" stopIfTrue="1">
       <formula>AND($D12="High risk",J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="37" stopIfTrue="1">
       <formula>AND($D12="On track",J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="38" stopIfTrue="1">
       <formula>AND($D12="Med risk",J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="39" stopIfTrue="1">
       <formula>AND(LEN($D12)=0,J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23460,24 +23464,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:BM15">
-    <cfRule type="expression" dxfId="23" priority="25">
+    <cfRule type="expression" dxfId="27" priority="25">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:BM15">
-    <cfRule type="expression" dxfId="22" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
       <formula>AND($D15="Low risk",J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="28" stopIfTrue="1">
       <formula>AND($D15="High risk",J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="29" stopIfTrue="1">
       <formula>AND($D15="On track",J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="30" stopIfTrue="1">
       <formula>AND($D15="Med risk",J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="31" stopIfTrue="1">
       <formula>AND(LEN($D15)=0,J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23496,46 +23500,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:BM18">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="21" priority="17">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:BM18">
-    <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
       <formula>AND($D16="Low risk",J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
       <formula>AND($D16="High risk",J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
       <formula>AND($D16="On track",J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="22" stopIfTrue="1">
       <formula>AND($D16="Med risk",J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="23" stopIfTrue="1">
       <formula>AND(LEN($D16)=0,J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:BM19">
-    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
       <formula>AND($D19="Low risk",J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
       <formula>AND($D19="High risk",J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>AND($D19="On track",J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
       <formula>AND($D19="Med risk",J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="16" stopIfTrue="1">
       <formula>AND(LEN($D19)=0,J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:BM19">
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23554,19 +23558,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:BM21">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
       <formula>AND($D20="Low risk",J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
       <formula>AND($D20="High risk",J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
       <formula>AND($D20="On track",J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>AND($D20="Med risk",J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
       <formula>AND(LEN($D20)=0,J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23585,7 +23589,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:GC21">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Planning Report/application sprint planner sprint1 18.11.19.xlsx
+++ b/Planning Report/application sprint planner sprint1 18.11.19.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9C5CED-06D3-4BB3-A514-8E139108EAE1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDF7A2A-F589-467E-9659-9557DBF1155D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="28200" windowHeight="14085" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="99">
   <si>
     <t>Create a Gantt Chart in this worksheet.
 Enter title of this project in cell B1. 
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t>Task Creation</t>
+  </si>
+  <si>
+    <t>VIVA</t>
   </si>
 </sst>
 </file>
@@ -1355,40 +1358,6 @@
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="92">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2894,6 +2863,40 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -3215,10 +3218,10 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone description" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{C2AA6DD8-DBD1-4E89-A1EF-3287225D3E74}" name="Required" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Estimated Duration" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone description" dataDxfId="79"/>
+    <tableColumn id="7" xr3:uid="{C2AA6DD8-DBD1-4E89-A1EF-3287225D3E74}" name="Required" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Estimated Duration" dataDxfId="76"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="No. Days" dataCellStyle="Comma [0]"/>
@@ -3498,8 +3501,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BM99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8726,10 +8729,14 @@
       <c r="E28" s="34">
         <v>2</v>
       </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32"/>
+      <c r="F28" s="31">
+        <v>1</v>
+      </c>
+      <c r="G28" s="32">
+        <v>43795</v>
+      </c>
       <c r="H28" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28" s="26"/>
       <c r="J28" s="38" t="str">
@@ -10358,7 +10365,9 @@
       <c r="E36" s="34">
         <v>0.5</v>
       </c>
-      <c r="F36" s="31"/>
+      <c r="F36" s="31">
+        <v>1</v>
+      </c>
       <c r="G36" s="32">
         <v>43788</v>
       </c>
@@ -10426,7 +10435,7 @@
     <row r="37" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="41" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="C37" s="41" t="s">
         <v>67</v>
@@ -10437,8 +10446,12 @@
       <c r="E37" s="34">
         <v>0.5</v>
       </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="32"/>
+      <c r="F37" s="31">
+        <v>1</v>
+      </c>
+      <c r="G37" s="32">
+        <v>43797</v>
+      </c>
       <c r="H37" s="33">
         <v>1</v>
       </c>
@@ -10509,13 +10522,17 @@
         <v>67</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E38" s="34">
         <v>4</v>
       </c>
-      <c r="F38" s="31"/>
-      <c r="G38" s="32"/>
+      <c r="F38" s="31">
+        <v>1</v>
+      </c>
+      <c r="G38" s="32">
+        <v>43795</v>
+      </c>
       <c r="H38" s="33">
         <v>1</v>
       </c>
@@ -10836,7 +10853,9 @@
       <c r="E40" s="34">
         <v>4</v>
       </c>
-      <c r="F40" s="31"/>
+      <c r="F40" s="31">
+        <v>1</v>
+      </c>
       <c r="G40" s="32">
         <v>43789</v>
       </c>
@@ -22908,56 +22927,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:BM8 J96:BM97 J68:BM71 J77:BM77 J53:BM53 J74:BM74 J83:BM83 J63:BM66 J55:BM56 J10:BM10 J45:BM50 J22:BM43">
-    <cfRule type="expression" dxfId="79" priority="243">
+    <cfRule type="expression" dxfId="75" priority="243">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:AN4">
-    <cfRule type="expression" dxfId="78" priority="249">
+    <cfRule type="expression" dxfId="74" priority="249">
       <formula>J$5&lt;=EOMONTH($J$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:BM4">
-    <cfRule type="expression" dxfId="77" priority="245">
+    <cfRule type="expression" dxfId="73" priority="245">
       <formula>AND(K$5&lt;=EOMONTH($J$5,2),K$5&gt;EOMONTH($J$5,0),K$5&gt;EOMONTH($J$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:BM4">
-    <cfRule type="expression" dxfId="76" priority="244">
+    <cfRule type="expression" dxfId="72" priority="244">
       <formula>AND(J$5&lt;=EOMONTH($J$5,1),J$5&gt;EOMONTH($J$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:BM8 J10:BM10 J22:BM96">
-    <cfRule type="expression" dxfId="75" priority="266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="266" stopIfTrue="1">
       <formula>AND($D8="Low risk",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="285" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="285" stopIfTrue="1">
       <formula>AND($D8="High risk",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="303" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="303" stopIfTrue="1">
       <formula>AND($D8="On track",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="304" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="304" stopIfTrue="1">
       <formula>AND($D8="Med risk",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="305" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="305" stopIfTrue="1">
       <formula>AND(LEN($D8)=0,J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J97:BM97">
-    <cfRule type="expression" dxfId="70" priority="313" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="313" stopIfTrue="1">
       <formula>AND(#REF!="Low risk",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="314" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="314" stopIfTrue="1">
       <formula>AND(#REF!="High risk",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="315" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="315" stopIfTrue="1">
       <formula>AND(#REF!="On track",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="316" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="316" stopIfTrue="1">
       <formula>AND(#REF!="Med risk",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="317" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22976,24 +22995,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:BM9">
-    <cfRule type="expression" dxfId="65" priority="234">
+    <cfRule type="expression" dxfId="61" priority="234">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:BM9">
-    <cfRule type="expression" dxfId="64" priority="236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="236" stopIfTrue="1">
       <formula>AND($D9="Low risk",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="237" stopIfTrue="1">
       <formula>AND($D9="High risk",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="238" stopIfTrue="1">
       <formula>AND($D9="On track",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="239" stopIfTrue="1">
       <formula>AND($D9="Med risk",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="240" stopIfTrue="1">
       <formula>AND(LEN($D9)=0,J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23012,7 +23031,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J60:BM60 J57:BM58">
-    <cfRule type="expression" dxfId="59" priority="218">
+    <cfRule type="expression" dxfId="55" priority="218">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23031,7 +23050,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J62:GC62">
-    <cfRule type="expression" dxfId="58" priority="209">
+    <cfRule type="expression" dxfId="54" priority="209">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23050,7 +23069,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J61:BM61 J59:BM59">
-    <cfRule type="expression" dxfId="57" priority="202">
+    <cfRule type="expression" dxfId="53" priority="202">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23069,7 +23088,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:BM44">
-    <cfRule type="expression" dxfId="56" priority="194">
+    <cfRule type="expression" dxfId="52" priority="194">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23088,7 +23107,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J67:GC67">
-    <cfRule type="expression" dxfId="55" priority="185">
+    <cfRule type="expression" dxfId="51" priority="185">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23107,7 +23126,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J78:GC79 J81:GC83 J86:GC86 J93:GC95">
-    <cfRule type="expression" dxfId="54" priority="178">
+    <cfRule type="expression" dxfId="50" priority="178">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23126,7 +23145,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J80:GC80">
-    <cfRule type="expression" dxfId="53" priority="170">
+    <cfRule type="expression" dxfId="49" priority="170">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23145,7 +23164,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J76:GC76">
-    <cfRule type="expression" dxfId="52" priority="161">
+    <cfRule type="expression" dxfId="48" priority="161">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23164,7 +23183,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52:GC52">
-    <cfRule type="expression" dxfId="51" priority="153">
+    <cfRule type="expression" dxfId="47" priority="153">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23183,7 +23202,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J73:BM73">
-    <cfRule type="expression" dxfId="50" priority="145">
+    <cfRule type="expression" dxfId="46" priority="145">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23202,7 +23221,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J84:GC85">
-    <cfRule type="expression" dxfId="49" priority="137">
+    <cfRule type="expression" dxfId="45" priority="137">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23221,7 +23240,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J87:GC88">
-    <cfRule type="expression" dxfId="48" priority="129">
+    <cfRule type="expression" dxfId="44" priority="129">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23240,7 +23259,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J91:GC91">
-    <cfRule type="expression" dxfId="47" priority="121">
+    <cfRule type="expression" dxfId="43" priority="121">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23259,7 +23278,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J92:GC92">
-    <cfRule type="expression" dxfId="46" priority="113">
+    <cfRule type="expression" dxfId="42" priority="113">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23278,7 +23297,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75:BM75">
-    <cfRule type="expression" dxfId="45" priority="105">
+    <cfRule type="expression" dxfId="41" priority="105">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23297,7 +23316,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54:BM54">
-    <cfRule type="expression" dxfId="44" priority="97">
+    <cfRule type="expression" dxfId="40" priority="97">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23316,7 +23335,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J90:BM90">
-    <cfRule type="expression" dxfId="43" priority="89">
+    <cfRule type="expression" dxfId="39" priority="89">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23335,7 +23354,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72:BM72">
-    <cfRule type="expression" dxfId="42" priority="57">
+    <cfRule type="expression" dxfId="38" priority="57">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23354,12 +23373,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J89:GC89">
-    <cfRule type="expression" dxfId="41" priority="65">
+    <cfRule type="expression" dxfId="37" priority="65">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51:BM51">
-    <cfRule type="expression" dxfId="40" priority="49">
+    <cfRule type="expression" dxfId="36" priority="49">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23392,24 +23411,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:BM11">
-    <cfRule type="expression" dxfId="39" priority="41">
+    <cfRule type="expression" dxfId="35" priority="41">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:BM11">
-    <cfRule type="expression" dxfId="38" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="43" stopIfTrue="1">
       <formula>AND($D11="Low risk",J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="44" stopIfTrue="1">
       <formula>AND($D11="High risk",J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="45" stopIfTrue="1">
       <formula>AND($D11="On track",J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="46" stopIfTrue="1">
       <formula>AND($D11="Med risk",J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="47" stopIfTrue="1">
       <formula>AND(LEN($D11)=0,J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23428,24 +23447,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:BM14">
-    <cfRule type="expression" dxfId="33" priority="33">
+    <cfRule type="expression" dxfId="29" priority="33">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:BM14">
-    <cfRule type="expression" dxfId="32" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="35" stopIfTrue="1">
       <formula>AND($D12="Low risk",J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="36" stopIfTrue="1">
       <formula>AND($D12="High risk",J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="37" stopIfTrue="1">
       <formula>AND($D12="On track",J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="38" stopIfTrue="1">
       <formula>AND($D12="Med risk",J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="39" stopIfTrue="1">
       <formula>AND(LEN($D12)=0,J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23464,24 +23483,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:BM15">
-    <cfRule type="expression" dxfId="27" priority="25">
+    <cfRule type="expression" dxfId="23" priority="25">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:BM15">
-    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="27" stopIfTrue="1">
       <formula>AND($D15="Low risk",J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="28" stopIfTrue="1">
       <formula>AND($D15="High risk",J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="29" stopIfTrue="1">
       <formula>AND($D15="On track",J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="30" stopIfTrue="1">
       <formula>AND($D15="Med risk",J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="31" stopIfTrue="1">
       <formula>AND(LEN($D15)=0,J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23500,46 +23519,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:BM18">
-    <cfRule type="expression" dxfId="21" priority="17">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:BM18">
-    <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
       <formula>AND($D16="Low risk",J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="20" stopIfTrue="1">
       <formula>AND($D16="High risk",J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="21" stopIfTrue="1">
       <formula>AND($D16="On track",J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="22" stopIfTrue="1">
       <formula>AND($D16="Med risk",J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="23" stopIfTrue="1">
       <formula>AND(LEN($D16)=0,J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:BM19">
-    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
       <formula>AND($D19="Low risk",J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="13" stopIfTrue="1">
       <formula>AND($D19="High risk",J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="14" stopIfTrue="1">
       <formula>AND($D19="On track",J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="15" stopIfTrue="1">
       <formula>AND($D19="Med risk",J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="16" stopIfTrue="1">
       <formula>AND(LEN($D19)=0,J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:BM19">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23558,19 +23577,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:BM21">
-    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>AND($D20="Low risk",J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>AND($D20="High risk",J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
       <formula>AND($D20="On track",J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
       <formula>AND($D20="Med risk",J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
       <formula>AND(LEN($D20)=0,J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23589,7 +23608,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:GC21">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
